--- a/Firmware/Examples/turnMaze/simulacionGiro.xlsx
+++ b/Firmware/Examples/turnMaze/simulacionGiro.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>accW</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>PARAMETROS</t>
-  </si>
-  <si>
-    <t>velMoveX</t>
-  </si>
-  <si>
-    <t>velMoveW</t>
   </si>
   <si>
     <t>t1</t>
@@ -113,10 +107,28 @@
     <t>Y</t>
   </si>
   <si>
-    <t>cm</t>
+    <t>ms</t>
   </si>
   <si>
-    <t>ms</t>
+    <t>Radio Rueda</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Cn</t>
+  </si>
+  <si>
+    <t>Resolucion Enc</t>
+  </si>
+  <si>
+    <t>tics/rev</t>
+  </si>
+  <si>
+    <t>ang=90*diff/(PI()/2*C14/P3)</t>
+  </si>
+  <si>
+    <t>tT</t>
   </si>
 </sst>
 </file>
@@ -140,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,9 +283,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -280,9 +296,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -295,9 +309,7 @@
       <right style="double">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -307,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -316,15 +328,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,109 +479,109 @@
                   <c:v>16.79102989357156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.889908630268</c:v>
+                  <c:v>18.76800865066574</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.02401253535744</c:v>
+                  <c:v>19.86688738736219</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.12289127205388</c:v>
+                  <c:v>20.96576612405863</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>22.06464486075508</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>23.16352359745152</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>21.88214833677556</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>20.6007730760996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>19.31939781542364</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>17.03802255474768</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>14.75664729407172</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>12.47527203339575</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>10.19389677271979</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>7.912521512043827</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>5.631146251367865</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>3.349770990691903</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>1.068395730015941</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21.2449889094646</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.39030544758959</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.53562198571457</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15.68093852383956</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.82625506196455</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.97157160008954</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.11688813821452</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.26220467633951</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.407521214464499</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.552837752589486</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.662929122321483</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.80824566044647</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.953562198571458</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.098878736696445</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.244195274821433</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.0</c:v>
@@ -709,109 +724,109 @@
                   <c:v>0.79102989357156</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.889908630268005</c:v>
+                  <c:v>1.011808609870267</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.953562198571459</c:v>
+                  <c:v>2.110687346566712</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.052440935267905</c:v>
+                  <c:v>3.209566083263157</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>4.308444819959602</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>5.407323556656047</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>4.125948295980084</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>2.844573035304123</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>1.563197774628161</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>1.2818225139522</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>1.000447253276238</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>0.719071992600275</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>0.437696731924313</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>0.156321471248351</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>-0.125053789427612</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>-0.406429050103574</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>-0.687804310779536</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.174538572678617</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.319855110803605</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.465171648928592</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.61048818705358</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.755804725178567</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.901121263303555</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.046437801428542</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.19175433955353</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.337070877678517</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.482387415803504</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.662929122321483</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.80824566044647</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.953562198571458</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.098878736696445</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.244195274821433</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.0</c:v>
@@ -908,11 +923,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2103974192"/>
-        <c:axId val="-2104036928"/>
+        <c:axId val="-2109001264"/>
+        <c:axId val="-2113479376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2103974192"/>
+        <c:axId val="-2109001264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,7 +969,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104036928"/>
+        <c:crossAx val="-2113479376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -962,7 +977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104036928"/>
+        <c:axId val="-2113479376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1013,7 +1028,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103974192"/>
+        <c:crossAx val="-2109001264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1455,94 +1470,94 @@
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0</c:v>
+                  <c:v>8.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>8.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>8.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>8.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>8.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>8.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>8.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>8.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>7.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>6.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>5.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>4.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>3.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>2.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>1.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>0.878100020397738</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.035225168392991</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.0352251683929907</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.0</c:v>
@@ -1942,100 +1957,100 @@
                   <c:v>12.0876661036609</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>13.18654484035734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>14.28542357705379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>13.00404831637782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>11.72267305570186</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>10.4412977950259</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>9.159922534349938</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>7.878547273673976</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>6.597172012998014</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>5.315796752322051</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>4.03442149164609</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>2.753046230970127</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>1.471670970294165</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>0.190295709618202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.20976374107161</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.3550802791966</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.50039681732158</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.645713355446571</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.791029893571558</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.936346431696545</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.081662969821532</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.22697950794652</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.372296046071508</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.517612584196495</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.662929122321483</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.80824566044647</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.953562198571458</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.098878736696445</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.244195274821433</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.0</c:v>
@@ -2135,11 +2150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2104607632"/>
-        <c:axId val="-2104714288"/>
+        <c:axId val="-2121330848"/>
+        <c:axId val="-2109173712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2104607632"/>
+        <c:axId val="-2121330848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2197,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104714288"/>
+        <c:crossAx val="-2109173712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2190,7 +2205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104714288"/>
+        <c:axId val="-2109173712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2256,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2104607632"/>
+        <c:crossAx val="-2121330848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2458,193 +2473,193 @@
                   <c:v>75.559634521072</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.44954315134</c:v>
+                  <c:v>94.32764317173774</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>114.4735556866975</c:v>
+                  <c:v>114.1945305590999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>135.5964469587513</c:v>
+                  <c:v>135.1602966831586</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156.841435868216</c:v>
+                  <c:v>157.2249415439136</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>178.0864247776805</c:v>
+                  <c:v>180.3884651413652</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>199.3314136871452</c:v>
+                  <c:v>202.2706134781407</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>220.5764025966098</c:v>
+                  <c:v>222.8713865542404</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>241.8213915060744</c:v>
+                  <c:v>242.190784369664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>263.066380415539</c:v>
+                  <c:v>259.2288069244117</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>284.3113693250036</c:v>
+                  <c:v>273.9854542184834</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>305.5563582344682</c:v>
+                  <c:v>286.4607262518792</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>326.8013471439328</c:v>
+                  <c:v>296.654623024599</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>348.0463360533974</c:v>
+                  <c:v>304.5671445366428</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>369.291324962862</c:v>
+                  <c:v>310.1982907880106</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>390.5363138723266</c:v>
+                  <c:v>313.5480617787026</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>411.7813027817912</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>433.0262916912558</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>454.2712806007204</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>475.5162695101851</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>496.7612584196497</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>518.0062473291142</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>537.3965527767039</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>554.9321747624184</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>570.613113286258</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>584.4393683482225</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>596.410939948312</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>606.5278280865266</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>614.790032762866</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>621.1975539773305</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>625.7503917299201</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>629.4133208522416</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>632.221566512688</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>634.1751287112595</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>635.274007447956</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>635.5182027227773</c:v>
+                  <c:v>314.6164575087185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,193 +2726,193 @@
                   <c:v>3.559634521072016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.44954315134002</c:v>
+                  <c:v>4.571443130942282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.40310534991148</c:v>
+                  <c:v>6.682130477508994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.45554628517938</c:v>
+                  <c:v>9.89169656077215</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.630084857858</c:v>
+                  <c:v>14.20014138073175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.80462343053662</c:v>
+                  <c:v>19.6074649373878</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.97916200321524</c:v>
+                  <c:v>23.73341323336788</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.15370057589385</c:v>
+                  <c:v>26.57798626867201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.32823914857247</c:v>
+                  <c:v>28.14118404330017</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.50277772125109</c:v>
+                  <c:v>29.42300655725237</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.67731629392971</c:v>
+                  <c:v>30.42345381052861</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.85185486660832</c:v>
+                  <c:v>31.14252580312888</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.02639343928693</c:v>
+                  <c:v>31.5802225350532</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41.20093201196554</c:v>
+                  <c:v>31.73654400630155</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44.37547058464416</c:v>
+                  <c:v>31.61149021687394</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>47.55000915732278</c:v>
+                  <c:v>31.20506116677036</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.7245477300014</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53.89908630268</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>57.07362487535862</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60.24816344803723</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>63.42270202071584</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>66.59724059339445</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>69.91709570419806</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>73.38226735312665</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>76.99275554018023</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>80.7485602653588</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>84.64968152866234</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>88.69611933009088</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>92.8878736696444</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>97.22494454732292</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>101.7073319631264</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>105.370261085448</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>108.1785067458944</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>110.1320689444658</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>111.2309476811623</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>111.4751429559837</c:v>
+                  <c:v>30.51725685599083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2928,11 +2943,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="-2094417568"/>
-        <c:axId val="-2094249264"/>
+        <c:axId val="-2108895296"/>
+        <c:axId val="-2121506400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094417568"/>
+        <c:axId val="-2108895296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,7 +2989,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094249264"/>
+        <c:crossAx val="-2121506400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2982,7 +2997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094249264"/>
+        <c:axId val="-2121506400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3034,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094417568"/>
+        <c:crossAx val="-2108895296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3168,7 +3183,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$S$2</c:f>
+              <c:f>Hoja1!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3191,7 +3206,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$R$3:$R$74</c:f>
+              <c:f>Hoja1!$S$3:$S$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -3199,224 +3214,224 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.098858835590912</c:v>
+                  <c:v>0.483405839437695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.296258097734158</c:v>
+                  <c:v>1.67952700051911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.590745215479575</c:v>
+                  <c:v>3.470777220036146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.97830209852535</c:v>
+                  <c:v>5.849854290223527</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.45032217173685</c:v>
+                  <c:v>8.801144685872738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.99100616500056</c:v>
+                  <c:v>12.296082036331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.57419793626164</c:v>
+                  <c:v>16.28764331895393</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.15969843618548</c:v>
+                  <c:v>20.70421052151556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.68911982289601</c:v>
+                  <c:v>25.44658975113316</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.10193493833182</c:v>
+                  <c:v>30.41427832022504</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70.32919733003877</c:v>
+                  <c:v>35.4948689636396</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>81.407215955221</c:v>
+                  <c:v>40.56574130950631</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92.18983559577673</c:v>
+                  <c:v>45.49593778026707</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102.6451809746047</c:v>
+                  <c:v>49.42840299065193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112.742344293577</c:v>
+                  <c:v>52.4388236431008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>122.4514766023035</c:v>
+                  <c:v>54.61850427098542</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>131.7438760367592</c:v>
+                  <c:v>56.12475364889056</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>140.5920726669289</c:v>
+                  <c:v>57.10741932638228</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>148.9699097026414</c:v>
+                  <c:v>57.70257449605195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>156.8526208175377</c:v>
+                  <c:v>58.02832377847511</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>164.2169033625891</c:v>
+                  <c:v>58.1822239312435</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>171.0409872527324</c:v>
+                  <c:v>58.23985013517028</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>177.3046993229844</c:v>
+                  <c:v>58.25410444361692</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>182.989522963785</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>188.0786528592773</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>192.5570446667107</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>196.4114594901035</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>199.6305030166956</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>202.2046592004952</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>204.0592569159175</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>205.3342318331875</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>206.1569718499842</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>206.6410757320999</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>206.8855582782954</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>206.9743824765158</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>206.9762158344961</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>206.944326323078</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>206.916552434164</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>206.8940330647743</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>206.8767682149088</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>206.8647578845677</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>206.8580020737508</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>206.8565007824581</c:v>
+                  <c:v>58.25494670290161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$S$3:$S$74</c:f>
+              <c:f>Hoja1!$T$3:$T$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -3424,217 +3439,217 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00661342629497594</c:v>
+                  <c:v>0.00658263439175403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0462920677361458</c:v>
+                  <c:v>0.0460720680092146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.165308590461562</c:v>
+                  <c:v>0.164475858603428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.429687571197202</c:v>
+                  <c:v>0.427255773218967</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.925024090605794</c:v>
+                  <c:v>0.918725809449417</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.756104175166013</c:v>
+                  <c:v>1.740796452739551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.046217340936112</c:v>
+                  <c:v>3.010712909501279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.936028907065463</c:v>
+                  <c:v>4.857379664203893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.581859731126863</c:v>
+                  <c:v>7.409478898444938</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.09280393007237</c:v>
+                  <c:v>10.7454497412984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.57167108833408</c:v>
+                  <c:v>14.93037775101521</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.70546441811495</c:v>
+                  <c:v>20.01445117266</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.43376646146854</c:v>
+                  <c:v>26.03162405204549</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.73964337290661</c:v>
+                  <c:v>31.92059336148229</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.60445389635051</c:v>
+                  <c:v>37.54966016990448</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.00790447188837</c:v>
+                  <c:v>42.80099804716247</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>54.92810922702653</c:v>
+                  <c:v>47.5561057722222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.34165467509066</c:v>
+                  <c:v>51.7322561979897</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72.2236689295169</c:v>
+                  <c:v>55.27505595322614</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>81.54789522942383</c:v>
+                  <c:v>58.15134710301469</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>91.28676955911102</c:v>
+                  <c:v>60.34286478040765</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101.4115021320274</c:v>
+                  <c:v>61.84090811899948</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>111.892162498329</c:v>
+                  <c:v>62.64216906091108</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>122.6977680244336</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>133.7963754830111</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>145.1551754826546</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>156.7405894580806</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>168.5183689341403</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>180.4536967701988</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>191.6562998364932</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>202.0790044893916</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>211.6895656072558</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>220.4672560791846</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>228.3998359223698</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>235.4809418162222</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>241.7079210542785</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>247.0801224527461</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>251.5976496604102</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>255.2605095585162</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>258.0687021470641</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>260.022227426054</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>261.1210853954857</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>261.3652760553595</c:v>
+                  <c:v>62.74578978248372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3649,11 +3664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2067218480"/>
-        <c:axId val="-2070306624"/>
+        <c:axId val="-2114757824"/>
+        <c:axId val="-2114763472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2067218480"/>
+        <c:axId val="-2114757824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3710,12 +3725,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2070306624"/>
+        <c:crossAx val="-2114763472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2070306624"/>
+        <c:axId val="-2114763472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,7 +3787,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067218480"/>
+        <c:crossAx val="-2114757824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6071,13 +6086,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -6102,15 +6117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>40216</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101471</xdr:rowOff>
+      <xdr:colOff>91530</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>345016</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>205252</xdr:rowOff>
+      <xdr:colOff>396330</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>179595</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6131,13 +6146,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>679450</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -6455,30 +6470,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S74"/>
+  <dimension ref="B1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="18" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P1" s="12" t="s">
-        <v>23</v>
+    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
       <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
     </row>
-    <row r="2" spans="2:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -6489,46 +6505,50 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -6540,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>C10</f>
+        <f>0</f>
         <v>0</v>
       </c>
       <c r="H3">
@@ -6571,21 +6591,25 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <f>2*PI()*C15/(C16)</f>
+        <v>0.5445427266222308</v>
+      </c>
+      <c r="Q3">
         <f>(K3-L3)/$C$14</f>
         <v>0</v>
       </c>
-      <c r="Q3">
-        <f>P3</f>
-        <v>0</v>
-      </c>
       <c r="R3">
+        <f>Q3</f>
         <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -6605,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <f xml:space="preserve"> IF($F4 &lt; $C$11+$C$12, IF($I3+$C$5 &lt; $C$8, $I3+$C$5, $C$8), IF( $I3-$C$6 &gt; 0,$I3-$C$6, 0))</f>
+        <f xml:space="preserve"> IF($F4 &lt; ($C$10 - $I3/$C$6*25), IF($I3+$C$5 &lt; $C$8, $I3+$C$5, $C$8), IF( $I3-$C$6 &gt; 0,$I3-$C$6, 0))</f>
         <v>1.0988787366964448</v>
       </c>
       <c r="J4">
@@ -6628,24 +6652,24 @@
         <f>L4+N3</f>
         <v>9.8878736696444758E-2</v>
       </c>
-      <c r="P4">
-        <f>(K4-L4)/$C$14</f>
-        <v>0.34482758620689657</v>
-      </c>
       <c r="Q4">
-        <f>P4+Q3</f>
-        <v>0.34482758620689657</v>
+        <f>360/(2*PI())*$P$3*(K4-L4)/$C$14</f>
+        <v>0.63030303030303025</v>
       </c>
       <c r="R4">
-        <f>R3+((L4+K4)/2*COS(RADIANS(Q4)))</f>
-        <v>1.0988588355909121</v>
+        <f>Q4+R3</f>
+        <v>0.63030303030303025</v>
       </c>
       <c r="S4">
-        <f>S3+((L4+K4)/2*SIN(RADIANS(Q4)))</f>
-        <v>6.6134262949759425E-3</v>
+        <f>S3+$P$3*((L4+K4)/2*COS(R4))</f>
+        <v>0.48340583943769511</v>
+      </c>
+      <c r="T4">
+        <f>T3+$P$3*((L4+K4)/2*SIN(RADIANS(R4)))</f>
+        <v>6.5826343917540333E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -6660,19 +6684,19 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G4:G41" si="2">IF($F5 &lt; $C$11, IF($G4+$C$3 &lt; $C$7, $G4+$C$3, $C$7), IF($F5 &lt; $C$11+$C$12, $C$7, IF( $G4-$C$4 &gt; 0,$G4-$C$4, 0)))</f>
+        <f>IF($F5 &lt; $C$11, IF($G4+$C$3 &lt; $C$7, $G4+$C$3, $C$7), IF($F5 &lt; $C$11+$C$12, $C$7, IF( $G4-$C$4 &gt; 0,$G4-$C$4, 0)))</f>
         <v>2</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H68" si="3">H4+G5</f>
+        <f t="shared" ref="H5:H68" si="2">H4+G5</f>
         <v>3</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I68" si="4" xml:space="preserve"> IF($F5 &lt; $C$11+$C$12, IF($I4+$C$5 &lt; $C$8, $I4+$C$5, $C$8), IF( $I4-$C$6 &gt; 0,$I4-$C$6, 0))</f>
+        <f t="shared" ref="I5:I68" si="3" xml:space="preserve"> IF($F5 &lt; ($C$10 - $I4/$C$6*25), IF($I4+$C$5 &lt; $C$8, $I4+$C$5, $C$8), IF( $I4-$C$6 &gt; 0,$I4-$C$6, 0))</f>
         <v>2.1977574733928895</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J68" si="5">I5+J4</f>
+        <f t="shared" ref="J5:J68" si="4">I5+J4</f>
         <v>3.2966362100893343</v>
       </c>
       <c r="K5">
@@ -6684,37 +6708,37 @@
         <v>0.19775747339288952</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M68" si="6">K5+M4</f>
+        <f t="shared" ref="M5:M68" si="5">K5+M4</f>
         <v>6.2966362100893338</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N68" si="7">L5+N4</f>
+        <f t="shared" ref="N5:N68" si="6">L5+N4</f>
         <v>0.29663621008933427</v>
       </c>
-      <c r="P5">
-        <f>(K5-L5)/$C$14</f>
-        <v>0.68965517241379315</v>
-      </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q68" si="8">P5+Q4</f>
-        <v>1.0344827586206897</v>
+        <f t="shared" ref="Q5:Q68" si="7">360/(2*PI())*$P$3*(K5-L5)/$C$14</f>
+        <v>1.2606060606060605</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R68" si="9">R4+((L5+K5)/2*COS(RADIANS(Q5)))</f>
-        <v>3.2962580977341576</v>
+        <f t="shared" ref="R5:R68" si="8">Q5+R4</f>
+        <v>1.8909090909090907</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S68" si="10">S4+((L5+K5)/2*SIN(RADIANS(Q5)))</f>
-        <v>4.6292067736145803E-2</v>
+        <f t="shared" ref="S5:S68" si="9">S4+$P$3*((L5+K5)/2*COS(RADIANS(R5)))</f>
+        <v>1.6795270005191103</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T68" si="10">T4+$P$3*((L5+K5)/2*SIN(RADIANS(R5)))</f>
+        <v>4.607206800921463E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <f>120*D6*2/(2*3.14*15.65) /100</f>
-        <v>0.85468346187501265</v>
+        <f>180*D6*2/(2*PI()*15.65) /100</f>
+        <v>1.2813752606759623</v>
       </c>
       <c r="D6" s="7">
         <v>35</v>
@@ -6723,19 +6747,19 @@
         <v>75</v>
       </c>
       <c r="G6">
+        <f>IF($F6 &lt; $C$11, IF($G5+$C$3 &lt; $C$7, $G5+$C$3, $C$7), IF($F6 &lt; $C$11+$C$12, $C$7, IF( $G5-$C$4 &gt; 0,$G5-$C$4, 0)))</f>
+        <v>3</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="I6">
+        <v>3.2966362100893343</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="4"/>
-        <v>3.2966362100893343</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="5"/>
         <v>6.5932724201786685</v>
       </c>
       <c r="K6">
@@ -6747,58 +6771,58 @@
         <v>0.29663621008933427</v>
       </c>
       <c r="M6">
+        <f t="shared" si="5"/>
+        <v>12.593272420178668</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="6"/>
-        <v>12.593272420178668</v>
-      </c>
-      <c r="N6">
+        <v>0.59327242017866855</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="7"/>
-        <v>0.59327242017866855</v>
-      </c>
-      <c r="P6">
-        <f>(K6-L6)/$C$14</f>
-        <v>1.0344827586206897</v>
-      </c>
-      <c r="Q6">
+        <v>1.8909090909090909</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="8"/>
-        <v>2.0689655172413794</v>
-      </c>
-      <c r="R6">
+        <v>3.7818181818181813</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="9"/>
-        <v>6.5907452154795756</v>
-      </c>
-      <c r="S6">
+        <v>3.4707772200361457</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="10"/>
-        <v>0.16530859046156243</v>
+        <v>0.16447585860342803</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="6">
-        <f>(120*D7)/(2*3.14*15.65)</f>
-        <v>9.0352251683929907</v>
+        <f>(180*D7)/(2*PI()*15.65)</f>
+        <v>8.8781000203977385</v>
       </c>
       <c r="D7" s="7">
-        <v>7.4</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7">
+        <f>IF($F7 &lt; $C$11, IF($G6+$C$3 &lt; $C$7, $G6+$C$3, $C$7), IF($F7 &lt; $C$11+$C$12, $C$7, IF( $G6-$C$4 &gt; 0,$G6-$C$4, 0)))</f>
+        <v>4</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I7">
+        <v>4.395514946785779</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="4"/>
-        <v>4.395514946785779</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="5"/>
         <v>10.988787366964448</v>
       </c>
       <c r="K7">
@@ -6810,58 +6834,58 @@
         <v>0.39551494678577903</v>
       </c>
       <c r="M7">
+        <f t="shared" si="5"/>
+        <v>20.988787366964445</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="6"/>
-        <v>20.988787366964445</v>
-      </c>
-      <c r="N7">
+        <v>0.98878736696444758</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="7"/>
-        <v>0.98878736696444758</v>
-      </c>
-      <c r="P7">
-        <f>(K7-L7)/$C$14</f>
-        <v>1.3793103448275863</v>
-      </c>
-      <c r="Q7">
+        <v>2.521212121212121</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="8"/>
-        <v>3.4482758620689657</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="9"/>
-        <v>10.978302098525353</v>
+        <v>6.3030303030303028</v>
       </c>
       <c r="S7">
+        <f>S6+$P$3*((L7+K7)/2*COS(RADIANS(R7)))</f>
+        <v>5.8498542902235275</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="10"/>
-        <v>0.42968757119720191</v>
+        <v>0.42725577321896668</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6">
-        <f>(120*D8)/(2*3.14*15.65)</f>
-        <v>12.209763741071608</v>
+        <f>(180*D8)/(2*PI()*15.65)</f>
+        <v>21.966433040159355</v>
       </c>
       <c r="D8" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>125</v>
       </c>
       <c r="G8">
+        <f>IF($F8 &lt; $C$11, IF($G7+$C$3 &lt; $C$7, $G7+$C$3, $C$7), IF($F8 &lt; $C$11+$C$12, $C$7, IF( $G7-$C$4 &gt; 0,$G7-$C$4, 0)))</f>
+        <v>5</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="I8">
+        <v>5.4943936834822242</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="4"/>
-        <v>5.4943936834822242</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="5"/>
         <v>16.483181050446674</v>
       </c>
       <c r="K8">
@@ -6873,348 +6897,341 @@
         <v>0.49439368348222423</v>
       </c>
       <c r="M8">
+        <f t="shared" si="5"/>
+        <v>31.483181050446667</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="6"/>
-        <v>31.483181050446667</v>
-      </c>
-      <c r="N8">
+        <v>1.4831810504466718</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="7"/>
-        <v>1.4831810504466718</v>
-      </c>
-      <c r="P8">
-        <f>(K8-L8)/$C$14</f>
-        <v>1.7241379310344829</v>
-      </c>
-      <c r="Q8">
+        <v>3.1515151515151514</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="8"/>
-        <v>5.1724137931034484</v>
-      </c>
-      <c r="R8">
+        <v>9.4545454545454533</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="9"/>
-        <v>16.45032217173685</v>
-      </c>
-      <c r="S8">
+        <v>8.8011446858727389</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="10"/>
-        <v>0.92502409060579371</v>
+        <v>0.91872580944941717</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
       <c r="F9">
         <v>150</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f>IF($F9 &lt; $C$11, IF($G8+$C$3 &lt; $C$7, $G8+$C$3, $C$7), IF($F9 &lt; $C$11+$C$12, $C$7, IF( $G8-$C$4 &gt; 0,$G8-$C$4, 0)))</f>
         <v>6</v>
       </c>
       <c r="H9">
+        <f>H8+G9</f>
+        <v>21</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="I9">
+        <v>6.5932724201786694</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="4"/>
-        <v>6.5932724201786694</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="5"/>
         <v>23.076453470625346</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f>I9+G9</f>
         <v>12.593272420178669</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f>I9-G9</f>
         <v>0.59327242017866944</v>
       </c>
       <c r="M9">
+        <f>K9+M8</f>
+        <v>44.076453470625339</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="6"/>
-        <v>44.076453470625339</v>
-      </c>
-      <c r="N9">
+        <v>2.0764534706253412</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="7"/>
-        <v>2.0764534706253412</v>
-      </c>
-      <c r="P9">
-        <f>(K9-L9)/$C$14</f>
-        <v>2.0689655172413794</v>
-      </c>
-      <c r="Q9">
+        <v>3.7818181818181817</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="8"/>
-        <v>7.2413793103448274</v>
-      </c>
-      <c r="R9">
+        <v>13.236363636363635</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="9"/>
-        <v>22.991006165000556</v>
-      </c>
-      <c r="S9">
+        <v>12.296082036330995</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="10"/>
-        <v>1.7561041751660134</v>
+        <v>1.7407964527395512</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+        <f>_xlfn.FLOOR.MATH((C11+C12+C13)/25)*25</f>
+        <v>625</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="F10">
         <v>175</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f>IF($F10 &lt; $C$11, IF($G9+$C$3 &lt; $C$7, $G9+$C$3, $C$7), IF($F10 &lt; $C$11+$C$12, $C$7, IF( $G9-$C$4 &gt; 0,$G9-$C$4, 0)))</f>
         <v>7</v>
       </c>
       <c r="H10">
+        <f>H9+G10</f>
+        <v>28</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="I10">
+        <v>7.6921511568751146</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="4"/>
-        <v>7.6921511568751146</v>
-      </c>
-      <c r="J10">
+        <v>30.768604627500459</v>
+      </c>
+      <c r="K10">
+        <f>I10+G10</f>
+        <v>14.692151156875115</v>
+      </c>
+      <c r="L10">
+        <f>I10-G10</f>
+        <v>0.69215115687511464</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="5"/>
-        <v>30.768604627500459</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>14.692151156875115</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>0.69215115687511464</v>
-      </c>
-      <c r="M10">
+        <v>58.768604627500451</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="6"/>
-        <v>58.768604627500451</v>
-      </c>
-      <c r="N10">
+        <v>2.7686046275004559</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="7"/>
-        <v>2.7686046275004559</v>
-      </c>
-      <c r="P10">
-        <f>(K10-L10)/$C$14</f>
-        <v>2.4137931034482758</v>
-      </c>
-      <c r="Q10">
+        <v>4.4121212121212121</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="8"/>
-        <v>9.6551724137931032</v>
-      </c>
-      <c r="R10">
+        <v>17.648484848484848</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="9"/>
-        <v>30.574197936261641</v>
-      </c>
-      <c r="S10">
+        <v>16.287643318953933</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="10"/>
-        <v>3.0462173409361122</v>
+        <v>3.0107129095012786</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="6">
         <f>C7/C3*25</f>
-        <v>225.88062920982478</v>
+        <v>221.95250050994346</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>200</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f>IF($F11 &lt; $C$11, IF($G10+$C$3 &lt; $C$7, $G10+$C$3, $C$7), IF($F11 &lt; $C$11+$C$12, $C$7, IF( $G10-$C$4 &gt; 0,$G10-$C$4, 0)))</f>
         <v>8</v>
       </c>
       <c r="H11">
+        <f>H10+G11</f>
+        <v>36</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="I11">
+        <v>8.7910298935715598</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="4"/>
-        <v>8.7910298935715598</v>
-      </c>
-      <c r="J11">
+        <v>39.55963452107202</v>
+      </c>
+      <c r="K11">
+        <f>I11+G11</f>
+        <v>16.791029893571562</v>
+      </c>
+      <c r="L11">
+        <f>I11-G11</f>
+        <v>0.79102989357155984</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="5"/>
-        <v>39.55963452107202</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>16.791029893571562</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>0.79102989357155984</v>
-      </c>
-      <c r="M11">
+        <v>75.559634521072013</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="6"/>
-        <v>75.559634521072013</v>
-      </c>
-      <c r="N11">
+        <v>3.5596345210720157</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="7"/>
-        <v>3.5596345210720157</v>
-      </c>
-      <c r="P11">
-        <f>(K11-L11)/$C$14</f>
-        <v>2.7586206896551726</v>
-      </c>
-      <c r="Q11">
+        <v>5.042424242424242</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="8"/>
-        <v>12.413793103448276</v>
-      </c>
-      <c r="R11">
+        <v>22.690909090909091</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="9"/>
-        <v>39.159698436185479</v>
-      </c>
-      <c r="S11">
+        <v>20.704210521515559</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="10"/>
-        <v>4.936028907065463</v>
+        <v>4.8573796642038936</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6">
-        <v>510</v>
+        <v>200</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>225</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>IF($F12 &lt; $C$11, IF($G11+$C$3 &lt; $C$7, $G11+$C$3, $C$7), IF($F12 &lt; $C$11+$C$12, $C$7, IF( $G11-$C$4 &gt; 0,$G11-$C$4, 0)))</f>
+        <v>8.8781000203977385</v>
       </c>
       <c r="H12">
+        <f>H11+G12</f>
+        <v>44.878100020397738</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="I12">
+        <v>9.889908630268005</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="4"/>
-        <v>9.889908630268005</v>
-      </c>
-      <c r="J12">
+        <v>49.449543151340023</v>
+      </c>
+      <c r="K12">
+        <f>I12+G12</f>
+        <v>18.768008650665742</v>
+      </c>
+      <c r="L12">
+        <f>I12-G12</f>
+        <v>1.0118086098702666</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="5"/>
-        <v>49.449543151340023</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>18.889908630268003</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>0.88990863026800504</v>
-      </c>
-      <c r="M12">
+        <v>94.327643171737748</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="6"/>
-        <v>94.449543151340009</v>
-      </c>
-      <c r="N12">
+        <v>4.5714431309422823</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="7"/>
-        <v>4.4495431513400208</v>
-      </c>
-      <c r="P12">
-        <f>(K12-L12)/$C$14</f>
-        <v>3.103448275862069</v>
-      </c>
-      <c r="Q12">
+        <v>5.5958933461900893</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="8"/>
-        <v>15.517241379310345</v>
-      </c>
-      <c r="R12">
+        <v>28.28680243709918</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="9"/>
-        <v>48.689119822896011</v>
-      </c>
-      <c r="S12">
+        <v>25.44658975113316</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="10"/>
-        <v>7.5818597311268636</v>
+        <v>7.4094788984449389</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6">
         <f>C7/C4*25</f>
-        <v>225.88062920982478</v>
+        <v>221.95250050994346</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>250</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
+        <f>IF($F13 &lt; $C$11, IF($G12+$C$3 &lt; $C$7, $G12+$C$3, $C$7), IF($F13 &lt; $C$11+$C$12, $C$7, IF( $G12-$C$4 &gt; 0,$G12-$C$4, 0)))</f>
+        <v>8.8781000203977385</v>
       </c>
       <c r="H13">
+        <f>H12+G13</f>
+        <v>53.756200040795477</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>54.035225168392991</v>
-      </c>
-      <c r="I13">
+        <v>10.98878736696445</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="4"/>
-        <v>10.98878736696445</v>
-      </c>
-      <c r="J13">
+        <v>60.438330518304475</v>
+      </c>
+      <c r="K13">
+        <f>I13+G13</f>
+        <v>19.866887387362191</v>
+      </c>
+      <c r="L13">
+        <f>I13-G13</f>
+        <v>2.1106873465667118</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="5"/>
-        <v>60.438330518304475</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>20.024012535357443</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>1.9535621985714595</v>
-      </c>
-      <c r="M13">
+        <v>114.19453055909995</v>
+      </c>
+      <c r="N13">
         <f t="shared" si="6"/>
-        <v>114.47355568669745</v>
-      </c>
-      <c r="N13">
+        <v>6.682130477508994</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="7"/>
-        <v>6.4031053499114803</v>
-      </c>
-      <c r="P13">
-        <f>(K13-L13)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q13">
+        <v>5.5958933461900893</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="8"/>
-        <v>18.6328362649631</v>
-      </c>
-      <c r="R13">
+        <v>33.882695783289272</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="9"/>
-        <v>59.101934938331823</v>
-      </c>
-      <c r="S13">
+        <v>30.414278320225044</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="10"/>
-        <v>11.092803930072368</v>
+        <v>10.745449741298396</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9">
-        <v>5.8</v>
+        <v>99</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>29</v>
@@ -7223,1486 +7240,1505 @@
         <v>275</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
+        <f>IF($F14 &lt; $C$11, IF($G13+$C$3 &lt; $C$7, $G13+$C$3, $C$7), IF($F14 &lt; $C$11+$C$12, $C$7, IF( $G13-$C$4 &gt; 0,$G13-$C$4, 0)))</f>
+        <v>8.8781000203977385</v>
       </c>
       <c r="H14">
+        <f>H13+G14</f>
+        <v>62.634300061193215</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="3"/>
-        <v>63.070450336785981</v>
-      </c>
-      <c r="I14">
+        <v>12.087666103660895</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="4"/>
-        <v>12.087666103660895</v>
-      </c>
-      <c r="J14">
+        <v>72.525996621965376</v>
+      </c>
+      <c r="K14">
+        <f>I14+G14</f>
+        <v>20.965766124058632</v>
+      </c>
+      <c r="L14">
+        <f>I14-G14</f>
+        <v>3.209566083263157</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="5"/>
-        <v>72.525996621965376</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>21.122891272053884</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>3.0524409352679047</v>
-      </c>
-      <c r="M14">
+        <v>135.16029668315858</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="6"/>
-        <v>135.59644695875133</v>
-      </c>
-      <c r="N14">
+        <v>9.8916965607721501</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="7"/>
-        <v>9.4555462851793841</v>
-      </c>
-      <c r="P14">
-        <f>(K14-L14)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q14">
+        <v>5.5958933461900893</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="8"/>
-        <v>21.748431150615854</v>
-      </c>
-      <c r="R14">
+        <v>39.47858912947936</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="9"/>
-        <v>70.329197330038767</v>
-      </c>
-      <c r="S14">
+        <v>35.494868963639604</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="10"/>
-        <v>15.571671088334078</v>
+        <v>14.930377751015214</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="16">
+        <v>15.6</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F15">
         <v>300</v>
       </c>
       <c r="G15">
+        <f>IF($F15 &lt; $C$11, IF($G14+$C$3 &lt; $C$7, $G14+$C$3, $C$7), IF($F15 &lt; $C$11+$C$12, $C$7, IF( $G14-$C$4 &gt; 0,$G14-$C$4, 0)))</f>
+        <v>8.8781000203977385</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H15">
+        <v>71.512400081590954</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="3"/>
-        <v>72.105675505178965</v>
-      </c>
-      <c r="I15">
+        <v>13.186544840357341</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="5"/>
-        <v>84.735760363036988</v>
+        <v>85.712541462322719</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>22.064644860755081</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>4.3084448199596022</v>
       </c>
       <c r="M15">
+        <f t="shared" si="5"/>
+        <v>157.22494154391364</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="6"/>
-        <v>156.84143586821594</v>
-      </c>
-      <c r="N15">
+        <v>14.200141380731752</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="7"/>
-        <v>12.630084857858002</v>
-      </c>
-      <c r="P15">
-        <f>(K15-L15)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q15">
+        <v>5.5958933461900893</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="8"/>
-        <v>24.864026036268609</v>
-      </c>
-      <c r="R15">
+        <v>45.074482475669448</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="9"/>
-        <v>81.407215955221005</v>
-      </c>
-      <c r="S15">
+        <v>40.565741309506308</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="10"/>
-        <v>20.705464418114946</v>
+        <v>20.014451172659996</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13">
+        <f>30*6</f>
+        <v>180</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="F16">
         <v>325</v>
       </c>
       <c r="G16">
+        <f>IF($F16 &lt; $C$11, IF($G15+$C$3 &lt; $C$7, $G15+$C$3, $C$7), IF($F16 &lt; $C$11+$C$12, $C$7, IF( $G15-$C$4 &gt; 0,$G15-$C$4, 0)))</f>
+        <v>8.8781000203977385</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H16">
+        <v>80.390500101988692</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="3"/>
-        <v>81.140900673571963</v>
-      </c>
-      <c r="I16">
+        <v>14.285423577053786</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="5"/>
-        <v>96.9455241041086</v>
+        <v>99.99796503937651</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>23.163523597451523</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>5.4073235566560474</v>
       </c>
       <c r="M16">
+        <f t="shared" si="5"/>
+        <v>180.38846514136517</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="6"/>
-        <v>178.08642477768055</v>
-      </c>
-      <c r="N16">
+        <v>19.6074649373878</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="7"/>
-        <v>15.804623430536619</v>
-      </c>
-      <c r="P16">
-        <f>(K16-L16)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q16">
+        <v>5.5958933461900893</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="8"/>
-        <v>27.979620921921363</v>
-      </c>
-      <c r="R16">
+        <v>50.670375821859537</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="9"/>
-        <v>92.189835595776728</v>
-      </c>
-      <c r="S16">
+        <v>45.49593778026707</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="10"/>
-        <v>26.433766461468537</v>
+        <v>26.031624052045487</v>
       </c>
     </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>350</v>
       </c>
       <c r="G17">
+        <f>IF($F17 &lt; $C$11, IF($G16+$C$3 &lt; $C$7, $G16+$C$3, $C$7), IF($F17 &lt; $C$11+$C$12, $C$7, IF( $G16-$C$4 &gt; 0,$G16-$C$4, 0)))</f>
+        <v>8.8781000203977385</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H17">
+        <v>89.268600122386431</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="3"/>
-        <v>90.176125841964961</v>
-      </c>
-      <c r="I17">
+        <v>13.004048316377823</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="5"/>
-        <v>109.15528784518021</v>
+        <v>113.00201335575433</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>21.882148336775561</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>4.1259482959800842</v>
       </c>
       <c r="M17">
+        <f t="shared" si="5"/>
+        <v>202.27061347814075</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="6"/>
-        <v>199.33141368714516</v>
-      </c>
-      <c r="N17">
+        <v>23.733413233367884</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="7"/>
-        <v>18.979162003215237</v>
-      </c>
-      <c r="P17">
-        <f>(K17-L17)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q17">
+        <v>5.5958933461900893</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="8"/>
-        <v>31.095215807574117</v>
-      </c>
-      <c r="R17">
+        <v>56.266269168049625</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="9"/>
-        <v>102.64518097460468</v>
-      </c>
-      <c r="S17">
+        <v>49.428402990651932</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="10"/>
-        <v>32.739643372906613</v>
+        <v>31.92059336148229</v>
       </c>
     </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F18">
         <v>375</v>
       </c>
       <c r="G18">
+        <f>IF($F18 &lt; $C$11, IF($G17+$C$3 &lt; $C$7, $G17+$C$3, $C$7), IF($F18 &lt; $C$11+$C$12, $C$7, IF( $G17-$C$4 &gt; 0,$G17-$C$4, 0)))</f>
+        <v>8.8781000203977385</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H18">
+        <v>98.146700142784169</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="3"/>
-        <v>99.211351010357959</v>
-      </c>
-      <c r="I18">
+        <v>11.722673055701861</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="5"/>
-        <v>121.36505158625182</v>
+        <v>124.72468641145619</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <f>I18+G18</f>
+        <v>20.6007730760996</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>2.8445730353041228</v>
       </c>
       <c r="M18">
+        <f t="shared" si="5"/>
+        <v>222.87138655424036</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="6"/>
-        <v>220.57640259660977</v>
-      </c>
-      <c r="N18">
+        <v>26.577986268672007</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="7"/>
-        <v>22.153700575893854</v>
-      </c>
-      <c r="P18">
-        <f>(K18-L18)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q18">
+        <v>5.5958933461900893</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="8"/>
-        <v>34.210810693226875</v>
-      </c>
-      <c r="R18">
+        <v>61.862162514239714</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="9"/>
-        <v>112.74234429357705</v>
-      </c>
-      <c r="S18">
+        <v>52.438823643100804</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="10"/>
-        <v>39.604453896350513</v>
+        <v>37.549660169904477</v>
       </c>
     </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>400</v>
       </c>
       <c r="G19">
+        <f>IF($F19 &lt; $C$11, IF($G18+$C$3 &lt; $C$7, $G18+$C$3, $C$7), IF($F19 &lt; $C$11+$C$12, $C$7, IF( $G18-$C$4 &gt; 0,$G18-$C$4, 0)))</f>
+        <v>8.8781000203977385</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H19">
+        <v>107.02480016318191</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="3"/>
-        <v>108.24657617875096</v>
-      </c>
-      <c r="I19">
+        <v>10.4412977950259</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="5"/>
-        <v>133.57481532732342</v>
+        <v>135.16598420648208</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>19.319397815423638</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>1.5631977746281613</v>
       </c>
       <c r="M19">
+        <f t="shared" si="5"/>
+        <v>242.19078436966399</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="6"/>
-        <v>241.82139150607438</v>
-      </c>
-      <c r="N19">
+        <v>28.141184043300168</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="7"/>
-        <v>25.328239148572472</v>
-      </c>
-      <c r="P19">
-        <f>(K19-L19)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q19">
+        <v>5.5958933461900893</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="8"/>
-        <v>37.32640557887963</v>
-      </c>
-      <c r="R19">
+        <v>67.458055860429809</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="9"/>
-        <v>122.45147660230346</v>
-      </c>
-      <c r="S19">
+        <v>54.618504270985419</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="10"/>
-        <v>47.007904471888367</v>
+        <v>42.800998047162466</v>
       </c>
     </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F20">
         <v>425</v>
       </c>
       <c r="G20">
+        <f>IF($F20 &lt; $C$11, IF($G19+$C$3 &lt; $C$7, $G19+$C$3, $C$7), IF($F20 &lt; $C$11+$C$12, $C$7, IF( $G19-$C$4 &gt; 0,$G19-$C$4, 0)))</f>
+        <v>7.8781000203977385</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H20">
+        <v>114.90290018357965</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="3"/>
-        <v>117.28180134714395</v>
-      </c>
-      <c r="I20">
+        <v>9.1599225343499384</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="5"/>
-        <v>145.78457906839503</v>
+        <v>144.32590674083201</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>17.038022554747677</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>1.2818225139521999</v>
       </c>
       <c r="M20">
+        <f t="shared" si="5"/>
+        <v>259.22880692441169</v>
+      </c>
+      <c r="N20">
         <f t="shared" si="6"/>
-        <v>263.06638041553896</v>
-      </c>
-      <c r="N20">
+        <v>29.423006557252368</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="7"/>
-        <v>28.502777721251089</v>
-      </c>
-      <c r="P20">
-        <f>(K20-L20)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q20">
+        <v>4.9655903158870593</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="8"/>
-        <v>40.442000464532384</v>
-      </c>
-      <c r="R20">
+        <v>72.423646176316865</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="9"/>
-        <v>131.74387603675922</v>
-      </c>
-      <c r="S20">
+        <v>56.124753648890561</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="10"/>
-        <v>54.928109227026532</v>
+        <v>47.556105772222196</v>
       </c>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>450</v>
       </c>
       <c r="G21">
+        <f>IF($F21 &lt; $C$11, IF($G20+$C$3 &lt; $C$7, $G20+$C$3, $C$7), IF($F21 &lt; $C$11+$C$12, $C$7, IF( $G20-$C$4 &gt; 0,$G20-$C$4, 0)))</f>
+        <v>6.8781000203977385</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H21">
+        <v>121.78100020397738</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="3"/>
-        <v>126.31702651553695</v>
-      </c>
-      <c r="I21">
+        <v>7.8785472736739761</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="5"/>
-        <v>157.99434280946664</v>
+        <v>152.20445401450598</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>14.756647294071715</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>1.0004472532762376</v>
       </c>
       <c r="M21">
+        <f t="shared" si="5"/>
+        <v>273.98545421848343</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="6"/>
-        <v>284.31136932500357</v>
-      </c>
-      <c r="N21">
+        <v>30.423453810528606</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="7"/>
-        <v>31.677316293929707</v>
-      </c>
-      <c r="P21">
-        <f>(K21-L21)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q21">
+        <v>4.3352872855840285</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="8"/>
-        <v>43.557595350185139</v>
-      </c>
-      <c r="R21">
+        <v>76.758933461900895</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="9"/>
-        <v>140.59207266692891</v>
-      </c>
-      <c r="S21">
+        <v>57.107419326382278</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="10"/>
-        <v>63.341654675090659</v>
+        <v>51.732256197989699</v>
       </c>
     </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F22">
         <v>475</v>
       </c>
       <c r="G22">
+        <f>IF($F22 &lt; $C$11, IF($G21+$C$3 &lt; $C$7, $G21+$C$3, $C$7), IF($F22 &lt; $C$11+$C$12, $C$7, IF( $G21-$C$4 &gt; 0,$G21-$C$4, 0)))</f>
+        <v>5.8781000203977385</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H22">
+        <v>127.65910022437512</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="3"/>
-        <v>135.35225168392995</v>
-      </c>
-      <c r="I22">
+        <v>6.5971720129980138</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="5"/>
-        <v>170.20410655053826</v>
+        <v>158.801626027504</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>12.475272033395752</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>0.71907199260027532</v>
       </c>
       <c r="M22">
+        <f t="shared" si="5"/>
+        <v>286.46072625187918</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="6"/>
-        <v>305.55635823446818</v>
-      </c>
-      <c r="N22">
+        <v>31.142525803128883</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="7"/>
-        <v>34.851854866608321</v>
-      </c>
-      <c r="P22">
-        <f>(K22-L22)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q22">
+        <v>3.7049842552809986</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="8"/>
-        <v>46.673190235837893</v>
-      </c>
-      <c r="R22">
+        <v>80.4639177171819</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="9"/>
-        <v>148.96990970264142</v>
-      </c>
-      <c r="S22">
+        <v>57.702574496051952</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="10"/>
-        <v>72.22366892951689</v>
+        <v>55.275055953226143</v>
       </c>
     </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>500</v>
       </c>
       <c r="G23">
+        <f>IF($F23 &lt; $C$11, IF($G22+$C$3 &lt; $C$7, $G22+$C$3, $C$7), IF($F23 &lt; $C$11+$C$12, $C$7, IF( $G22-$C$4 &gt; 0,$G22-$C$4, 0)))</f>
+        <v>4.8781000203977385</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H23">
+        <v>132.53720024477286</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="3"/>
-        <v>144.38747685232295</v>
-      </c>
-      <c r="I23">
+        <v>5.3157967523220515</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="5"/>
-        <v>182.41387029160987</v>
+        <v>164.11742277982606</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>10.193896772719789</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>0.43769673192431302</v>
       </c>
       <c r="M23">
+        <f t="shared" si="5"/>
+        <v>296.65462302459895</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="6"/>
-        <v>326.80134714393279</v>
-      </c>
-      <c r="N23">
+        <v>31.580222535053196</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="7"/>
-        <v>38.026393439286934</v>
-      </c>
-      <c r="P23">
-        <f>(K23-L23)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q23">
+        <v>3.0746812249779683</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="8"/>
-        <v>49.788785121490648</v>
-      </c>
-      <c r="R23">
+        <v>83.538598942159865</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="9"/>
-        <v>156.85262081753777</v>
-      </c>
-      <c r="S23">
+        <v>58.028323778475119</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="10"/>
-        <v>81.54789522942383</v>
+        <v>58.151347103014693</v>
       </c>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F24">
         <v>525</v>
       </c>
       <c r="G24">
+        <f>IF($F24 &lt; $C$11, IF($G23+$C$3 &lt; $C$7, $G23+$C$3, $C$7), IF($F24 &lt; $C$11+$C$12, $C$7, IF( $G23-$C$4 &gt; 0,$G23-$C$4, 0)))</f>
+        <v>3.8781000203977385</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H24">
+        <v>136.4153002651706</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="3"/>
-        <v>153.42270202071595</v>
-      </c>
-      <c r="I24">
+        <v>4.0344214916460892</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="5"/>
-        <v>194.62363403268148</v>
+        <v>168.15184427147216</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>7.9125215120438277</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>0.15632147124835072</v>
       </c>
       <c r="M24">
+        <f t="shared" si="5"/>
+        <v>304.56714453664279</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="6"/>
-        <v>348.0463360533974</v>
-      </c>
-      <c r="N24">
+        <v>31.736544006301546</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="7"/>
-        <v>41.200932011965548</v>
-      </c>
-      <c r="P24">
-        <f>(K24-L24)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q24">
+        <v>2.4443781946749379</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="8"/>
-        <v>52.904380007143402</v>
-      </c>
-      <c r="R24">
+        <v>85.982977136834805</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="9"/>
-        <v>164.21690336258905</v>
-      </c>
-      <c r="S24">
+        <v>58.182223931243499</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="10"/>
-        <v>91.286769559111022</v>
+        <v>60.342864780407652</v>
       </c>
     </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F25">
         <v>550</v>
       </c>
       <c r="G25">
+        <f>IF($F25 &lt; $C$11, IF($G24+$C$3 &lt; $C$7, $G24+$C$3, $C$7), IF($F25 &lt; $C$11+$C$12, $C$7, IF( $G24-$C$4 &gt; 0,$G24-$C$4, 0)))</f>
+        <v>2.8781000203977385</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H25">
+        <v>139.29340028556834</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="3"/>
-        <v>162.45792718910894</v>
-      </c>
-      <c r="I25">
+        <v>2.7530462309701269</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="5"/>
-        <v>206.83339777375309</v>
+        <v>170.90489050244227</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>5.6311462513678654</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>-0.12505378942761158</v>
       </c>
       <c r="M25">
+        <f t="shared" si="5"/>
+        <v>310.19829078801064</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="6"/>
-        <v>369.29132496286201</v>
-      </c>
-      <c r="N25">
+        <v>31.611490216873936</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="7"/>
-        <v>44.375470584644162</v>
-      </c>
-      <c r="P25">
-        <f>(K25-L25)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q25">
+        <v>1.8140751643719077</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="8"/>
-        <v>56.019974892796156</v>
-      </c>
-      <c r="R25">
+        <v>87.797052301206719</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="9"/>
-        <v>171.04098725273235</v>
-      </c>
-      <c r="S25">
+        <v>58.239850135170286</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="10"/>
-        <v>101.41150213202738</v>
+        <v>61.840908118999479</v>
       </c>
     </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F26">
         <v>575</v>
       </c>
       <c r="G26">
+        <f>IF($F26 &lt; $C$11, IF($G25+$C$3 &lt; $C$7, $G25+$C$3, $C$7), IF($F26 &lt; $C$11+$C$12, $C$7, IF( $G25-$C$4 &gt; 0,$G25-$C$4, 0)))</f>
+        <v>1.8781000203977385</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H26">
+        <v>141.17150030596608</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="3"/>
-        <v>171.49315235750194</v>
-      </c>
-      <c r="I26">
+        <v>1.4716709702941646</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="5"/>
-        <v>219.0431615148247</v>
+        <v>172.37656147273643</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>3.3497709906919031</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>-0.40642905010357389</v>
       </c>
       <c r="M26">
+        <f t="shared" si="5"/>
+        <v>313.54806177870256</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="6"/>
-        <v>390.53631387232662</v>
-      </c>
-      <c r="N26">
+        <v>31.205061166770363</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="7"/>
-        <v>47.550009157322776</v>
-      </c>
-      <c r="P26">
-        <f>(K26-L26)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q26">
+        <v>1.1837721340688776</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="8"/>
-        <v>59.135569778448911</v>
-      </c>
-      <c r="R26">
+        <v>88.980824435275593</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="9"/>
-        <v>177.30469932298445</v>
-      </c>
-      <c r="S26">
+        <v>58.254104443616917</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="10"/>
-        <v>111.89216249832897</v>
+        <v>62.64216906091108</v>
       </c>
     </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F27">
         <v>600</v>
       </c>
       <c r="G27">
+        <f>IF($F27 &lt; $C$11, IF($G26+$C$3 &lt; $C$7, $G26+$C$3, $C$7), IF($F27 &lt; $C$11+$C$12, $C$7, IF( $G26-$C$4 &gt; 0,$G26-$C$4, 0)))</f>
+        <v>0.87810002039773849</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H27">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="3"/>
-        <v>180.52837752589494</v>
-      </c>
-      <c r="I27">
+        <v>0.1902957096182023</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="5"/>
-        <v>231.25292525589632</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>1.0683957300159408</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>-0.68780431077953619</v>
       </c>
       <c r="M27">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="6"/>
-        <v>411.78130278179123</v>
-      </c>
-      <c r="N27">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="7"/>
-        <v>50.72454773000139</v>
-      </c>
-      <c r="P27">
-        <f>(K27-L27)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q27">
+        <v>0.55346910376584724</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="8"/>
-        <v>62.251164664101665</v>
-      </c>
-      <c r="R27">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="9"/>
-        <v>182.98952296378502</v>
-      </c>
-      <c r="S27">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="10"/>
-        <v>122.69776802443356</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F28">
         <v>625</v>
       </c>
       <c r="G28">
+        <f>IF($F28 &lt; $C$11, IF($G27+$C$3 &lt; $C$7, $G27+$C$3, $C$7), IF($F28 &lt; $C$11+$C$12, $C$7, IF( $G27-$C$4 &gt; 0,$G27-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H28">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="3"/>
-        <v>189.56360269428794</v>
-      </c>
-      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="5"/>
-        <v>243.46268899696793</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>0</v>
       </c>
       <c r="M28">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="6"/>
-        <v>433.02629169125584</v>
-      </c>
-      <c r="N28">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="7"/>
-        <v>53.899086302680004</v>
-      </c>
-      <c r="P28">
-        <f>(K28-L28)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="8"/>
-        <v>65.36675954975442</v>
-      </c>
-      <c r="R28">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="9"/>
-        <v>188.07865285927733</v>
-      </c>
-      <c r="S28">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="10"/>
-        <v>133.7963754830111</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F29">
         <v>650</v>
       </c>
       <c r="G29">
+        <f>IF($F29 &lt; $C$11, IF($G28+$C$3 &lt; $C$7, $G28+$C$3, $C$7), IF($F29 &lt; $C$11+$C$12, $C$7, IF( $G28-$C$4 &gt; 0,$G28-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H29">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="3"/>
-        <v>198.59882786268093</v>
-      </c>
-      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="5"/>
-        <v>255.67245273803954</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>0</v>
       </c>
       <c r="M29">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="6"/>
-        <v>454.27128060072044</v>
-      </c>
-      <c r="N29">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="7"/>
-        <v>57.073624875358618</v>
-      </c>
-      <c r="P29">
-        <f>(K29-L29)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="8"/>
-        <v>68.482354435407174</v>
-      </c>
-      <c r="R29">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="9"/>
-        <v>192.55704466671068</v>
-      </c>
-      <c r="S29">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="10"/>
-        <v>145.15517548265458</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>675</v>
       </c>
       <c r="G30">
+        <f>IF($F30 &lt; $C$11, IF($G29+$C$3 &lt; $C$7, $G29+$C$3, $C$7), IF($F30 &lt; $C$11+$C$12, $C$7, IF( $G29-$C$4 &gt; 0,$G29-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H30">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="3"/>
-        <v>207.63405303107393</v>
-      </c>
-      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="5"/>
-        <v>267.88221647911115</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>0</v>
       </c>
       <c r="M30">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N30">
         <f t="shared" si="6"/>
-        <v>475.51626951018505</v>
-      </c>
-      <c r="N30">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="7"/>
-        <v>60.248163448037232</v>
-      </c>
-      <c r="P30">
-        <f>(K30-L30)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="8"/>
-        <v>71.597949321059929</v>
-      </c>
-      <c r="R30">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="9"/>
-        <v>196.41145949010351</v>
-      </c>
-      <c r="S30">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="10"/>
-        <v>156.74058945808062</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>700</v>
       </c>
       <c r="G31">
+        <f>IF($F31 &lt; $C$11, IF($G30+$C$3 &lt; $C$7, $G30+$C$3, $C$7), IF($F31 &lt; $C$11+$C$12, $C$7, IF( $G30-$C$4 &gt; 0,$G30-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H31">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="3"/>
-        <v>216.66927819946693</v>
-      </c>
-      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="5"/>
-        <v>280.09198022018273</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>0</v>
       </c>
       <c r="M31">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="6"/>
-        <v>496.76125841964966</v>
-      </c>
-      <c r="N31">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="7"/>
-        <v>63.422702020715846</v>
-      </c>
-      <c r="P31">
-        <f>(K31-L31)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="8"/>
-        <v>74.713544206712683</v>
-      </c>
-      <c r="R31">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="9"/>
-        <v>199.6305030166956</v>
-      </c>
-      <c r="S31">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="10"/>
-        <v>168.51836893414028</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F32">
         <v>725</v>
       </c>
       <c r="G32">
+        <f>IF($F32 &lt; $C$11, IF($G31+$C$3 &lt; $C$7, $G31+$C$3, $C$7), IF($F32 &lt; $C$11+$C$12, $C$7, IF( $G31-$C$4 &gt; 0,$G31-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="2"/>
-        <v>9.0352251683929907</v>
-      </c>
-      <c r="H32">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="3"/>
-        <v>225.70450336785993</v>
-      </c>
-      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <f t="shared" si="4"/>
-        <v>12.209763741071608</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="5"/>
-        <v>292.30174396125432</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>21.244988909464599</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>3.1745385726786175</v>
+        <v>0</v>
       </c>
       <c r="M32">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="6"/>
-        <v>518.00624732911422</v>
-      </c>
-      <c r="N32">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="7"/>
-        <v>66.59724059339446</v>
-      </c>
-      <c r="P32">
-        <f>(K32-L32)/$C$14</f>
-        <v>3.1155948856527553</v>
-      </c>
-      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="8"/>
-        <v>77.829139092365438</v>
-      </c>
-      <c r="R32">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="9"/>
-        <v>202.20465920049523</v>
-      </c>
-      <c r="S32">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="10"/>
-        <v>180.4536967701988</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="33" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F33">
         <v>750</v>
       </c>
       <c r="G33">
+        <f>IF($F33 &lt; $C$11, IF($G32+$C$3 &lt; $C$7, $G32+$C$3, $C$7), IF($F33 &lt; $C$11+$C$12, $C$7, IF( $G32-$C$4 &gt; 0,$G32-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="2"/>
-        <v>8.0352251683929907</v>
-      </c>
-      <c r="H33">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="3"/>
-        <v>233.73972853625293</v>
-      </c>
-      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="4"/>
-        <v>11.355080279196596</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="5"/>
-        <v>303.65682424045093</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>19.390305447589586</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>3.319855110803605</v>
+        <v>0</v>
       </c>
       <c r="M33">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="6"/>
-        <v>537.39655277670386</v>
-      </c>
-      <c r="N33">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="7"/>
-        <v>69.917095704198061</v>
-      </c>
-      <c r="P33">
-        <f>(K33-L33)/$C$14</f>
-        <v>2.770767299445859</v>
-      </c>
-      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="8"/>
-        <v>80.599906391811302</v>
-      </c>
-      <c r="R33">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="9"/>
-        <v>204.05925691591747</v>
-      </c>
-      <c r="S33">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="10"/>
-        <v>191.65629983649325</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="34" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F34">
         <v>775</v>
       </c>
       <c r="G34">
+        <f>IF($F34 &lt; $C$11, IF($G33+$C$3 &lt; $C$7, $G33+$C$3, $C$7), IF($F34 &lt; $C$11+$C$12, $C$7, IF( $G33-$C$4 &gt; 0,$G33-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
         <f t="shared" si="2"/>
-        <v>7.0352251683929907</v>
-      </c>
-      <c r="H34">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="3"/>
-        <v>240.77495370464592</v>
-      </c>
-      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="4"/>
-        <v>10.500396817321583</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="5"/>
-        <v>314.15722105777252</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>17.535621985714574</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>3.4651716489285924</v>
+        <v>0</v>
       </c>
       <c r="M34">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="6"/>
-        <v>554.93217476241841</v>
-      </c>
-      <c r="N34">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="7"/>
-        <v>73.38226735312665</v>
-      </c>
-      <c r="P34">
-        <f>(K34-L34)/$C$14</f>
-        <v>2.4259397132389622</v>
-      </c>
-      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="8"/>
-        <v>83.025846105050263</v>
-      </c>
-      <c r="R34">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="9"/>
-        <v>205.33423183318752</v>
-      </c>
-      <c r="S34">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="10"/>
-        <v>202.07900448939162</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="35" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F35">
         <v>800</v>
       </c>
       <c r="G35">
+        <f>IF($F35 &lt; $C$11, IF($G34+$C$3 &lt; $C$7, $G34+$C$3, $C$7), IF($F35 &lt; $C$11+$C$12, $C$7, IF( $G34-$C$4 &gt; 0,$G34-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="2"/>
-        <v>6.0352251683929907</v>
-      </c>
-      <c r="H35">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="3"/>
-        <v>246.81017887303892</v>
-      </c>
-      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="4"/>
-        <v>9.6457133554465706</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="5"/>
-        <v>323.80293441321908</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>15.680938523839561</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>3.6104881870535799</v>
+        <v>0</v>
       </c>
       <c r="M35">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="6"/>
-        <v>570.613113286258</v>
-      </c>
-      <c r="N35">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="7"/>
-        <v>76.992755540180227</v>
-      </c>
-      <c r="P35">
-        <f>(K35-L35)/$C$14</f>
-        <v>2.0811121270320658</v>
-      </c>
-      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="8"/>
-        <v>85.106958232082334</v>
-      </c>
-      <c r="R35">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="9"/>
-        <v>206.15697184998422</v>
-      </c>
-      <c r="S35">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="10"/>
-        <v>211.68956560725576</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="36" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F36">
         <v>825</v>
       </c>
       <c r="G36">
+        <f>IF($F36 &lt; $C$11, IF($G35+$C$3 &lt; $C$7, $G35+$C$3, $C$7), IF($F36 &lt; $C$11+$C$12, $C$7, IF( $G35-$C$4 &gt; 0,$G35-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="2"/>
-        <v>5.0352251683929907</v>
-      </c>
-      <c r="H36">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="3"/>
-        <v>251.84540404143192</v>
-      </c>
-      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="4"/>
-        <v>8.7910298935715581</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="5"/>
-        <v>332.59396430679061</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>13.826255061964549</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>3.7558047251785673</v>
+        <v>0</v>
       </c>
       <c r="M36">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="6"/>
-        <v>584.4393683482225</v>
-      </c>
-      <c r="N36">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="7"/>
-        <v>80.74856026535879</v>
-      </c>
-      <c r="P36">
-        <f>(K36-L36)/$C$14</f>
-        <v>1.7362845408251693</v>
-      </c>
-      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="8"/>
-        <v>86.843242772907502</v>
-      </c>
-      <c r="R36">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="9"/>
-        <v>206.64107573209992</v>
-      </c>
-      <c r="S36">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="10"/>
-        <v>220.46725607918455</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="37" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F37">
         <v>850</v>
       </c>
       <c r="G37">
+        <f>IF($F37 &lt; $C$11, IF($G36+$C$3 &lt; $C$7, $G36+$C$3, $C$7), IF($F37 &lt; $C$11+$C$12, $C$7, IF( $G36-$C$4 &gt; 0,$G36-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="2"/>
-        <v>4.0352251683929907</v>
-      </c>
-      <c r="H37">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="3"/>
-        <v>255.88062920982492</v>
-      </c>
-      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="4"/>
-        <v>7.9363464316965455</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="5"/>
-        <v>340.53031073848717</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>11.971571600089536</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>3.9011212633035548</v>
+        <v>0</v>
       </c>
       <c r="M37">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="6"/>
-        <v>596.41093994831203</v>
-      </c>
-      <c r="N37">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="7"/>
-        <v>84.649681528662342</v>
-      </c>
-      <c r="P37">
-        <f>(K37-L37)/$C$14</f>
-        <v>1.3914569546182727</v>
-      </c>
-      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="8"/>
-        <v>88.234699727525779</v>
-      </c>
-      <c r="R37">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="9"/>
-        <v>206.88555827829541</v>
-      </c>
-      <c r="S37">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="10"/>
-        <v>228.39983592236976</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="38" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F38">
         <v>875</v>
       </c>
       <c r="G38">
+        <f>IF($F38 &lt; $C$11, IF($G37+$C$3 &lt; $C$7, $G37+$C$3, $C$7), IF($F38 &lt; $C$11+$C$12, $C$7, IF( $G37-$C$4 &gt; 0,$G37-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="2"/>
-        <v>3.0352251683929907</v>
-      </c>
-      <c r="H38">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="3"/>
-        <v>258.91585437821789</v>
-      </c>
-      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="4"/>
-        <v>7.081662969821533</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="5"/>
-        <v>347.61197370830871</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>10.116888138214524</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>4.0464378014285423</v>
+        <v>0</v>
       </c>
       <c r="M38">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="6"/>
-        <v>606.5278280865266</v>
-      </c>
-      <c r="N38">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="7"/>
-        <v>88.69611933009088</v>
-      </c>
-      <c r="P38">
-        <f>(K38-L38)/$C$14</f>
-        <v>1.0466293684113761</v>
-      </c>
-      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="8"/>
-        <v>89.281329095937153</v>
-      </c>
-      <c r="R38">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="9"/>
-        <v>206.97438247651576</v>
-      </c>
-      <c r="S38">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="10"/>
-        <v>235.48094181622221</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="39" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F39">
         <v>900</v>
       </c>
       <c r="G39">
+        <f>IF($F39 &lt; $C$11, IF($G38+$C$3 &lt; $C$7, $G38+$C$3, $C$7), IF($F39 &lt; $C$11+$C$12, $C$7, IF( $G38-$C$4 &gt; 0,$G38-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="2"/>
-        <v>2.0352251683929907</v>
-      </c>
-      <c r="H39">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="3"/>
-        <v>260.95107954661086</v>
-      </c>
-      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="4"/>
-        <v>6.2269795079465204</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="5"/>
-        <v>353.83895321625522</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>8.2622046763395112</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>4.1917543395535297</v>
+        <v>0</v>
       </c>
       <c r="M39">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="6"/>
-        <v>614.79003276286608</v>
-      </c>
-      <c r="N39">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="7"/>
-        <v>92.887873669644407</v>
-      </c>
-      <c r="P39">
-        <f>(K39-L39)/$C$14</f>
-        <v>0.70180178220447953</v>
-      </c>
-      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="8"/>
-        <v>89.983130878141637</v>
-      </c>
-      <c r="R39">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="9"/>
-        <v>206.97621583449612</v>
-      </c>
-      <c r="S39">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="10"/>
-        <v>241.70792105427853</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="40" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F40">
         <v>925</v>
       </c>
       <c r="G40">
+        <f>IF($F40 &lt; $C$11, IF($G39+$C$3 &lt; $C$7, $G39+$C$3, $C$7), IF($F40 &lt; $C$11+$C$12, $C$7, IF( $G39-$C$4 &gt; 0,$G39-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="2"/>
-        <v>1.0352251683929907</v>
-      </c>
-      <c r="H40">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="3"/>
-        <v>261.98630471500383</v>
-      </c>
-      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="4"/>
-        <v>5.3722960460715079</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="5"/>
-        <v>359.2112492623267</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>6.4075212144644986</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>4.3370708776785172</v>
+        <v>0</v>
       </c>
       <c r="M40">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="6"/>
-        <v>621.19755397733059</v>
-      </c>
-      <c r="N40">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="7"/>
-        <v>97.22494454732292</v>
-      </c>
-      <c r="P40">
-        <f>(K40-L40)/$C$14</f>
-        <v>0.35697419599758301</v>
-      </c>
-      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="8"/>
-        <v>90.340105074139217</v>
-      </c>
-      <c r="R40">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="9"/>
-        <v>206.94432632307803</v>
-      </c>
-      <c r="S40">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="10"/>
-        <v>247.08012245274611</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="41" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F41">
         <v>950</v>
       </c>
       <c r="G41">
+        <f>IF($F41 &lt; $C$11, IF($G40+$C$3 &lt; $C$7, $G40+$C$3, $C$7), IF($F41 &lt; $C$11+$C$12, $C$7, IF( $G40-$C$4 &gt; 0,$G40-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="2"/>
-        <v>3.5225168392990724E-2</v>
-      </c>
-      <c r="H41">
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="4"/>
-        <v>4.5176125841964954</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="5"/>
-        <v>363.72886184652322</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>4.5528377525894861</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>4.4823874158035046</v>
+        <v>0</v>
       </c>
       <c r="M41">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="6"/>
-        <v>625.75039172992012</v>
-      </c>
-      <c r="N41">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="7"/>
-        <v>101.70733196312642</v>
-      </c>
-      <c r="P41">
-        <f>(K41-L41)/$C$14</f>
-        <v>1.2146609790686456E-2</v>
-      </c>
-      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R41">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="9"/>
-        <v>206.91655243416403</v>
-      </c>
-      <c r="S41">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="10"/>
-        <v>251.59764966041018</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="42" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F42">
         <v>975</v>
       </c>
@@ -8711,281 +8747,281 @@
         <v>0</v>
       </c>
       <c r="H42">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="4"/>
-        <v>3.6629291223214828</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="5"/>
-        <v>367.3917909688447</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>3.6629291223214828</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
-        <v>3.6629291223214828</v>
+        <v>0</v>
       </c>
       <c r="M42">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="6"/>
-        <v>629.41332085224155</v>
-      </c>
-      <c r="N42">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="7"/>
-        <v>105.37026108544791</v>
-      </c>
-      <c r="P42">
-        <f>(K42-L42)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R42">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S42">
         <f t="shared" si="9"/>
-        <v>206.89403306477431</v>
-      </c>
-      <c r="S42">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T42">
         <f t="shared" si="10"/>
-        <v>255.26050955851619</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="43" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F43">
         <v>1000</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43:G74" si="11">IF($F43 &lt; $C$11, IF($G42+$C$3 &lt; $C$7, $G42+$C$3, $C$7), IF($F43 &lt; $C$11+$C$12, $C$7, IF( $G42-$C$4 &gt; 0,$G42-$C$4, 0)))</f>
+        <f>IF($F43 &lt; $C$11, IF($G42+$C$3 &lt; $C$7, $G42+$C$3, $C$7), IF($F43 &lt; $C$11+$C$12, $C$7, IF( $G42-$C$4 &gt; 0,$G42-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H43">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="4"/>
-        <v>2.8082456604464703</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="5"/>
-        <v>370.20003662929116</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>2.8082456604464703</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
-        <v>2.8082456604464703</v>
+        <v>0</v>
       </c>
       <c r="M43">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="6"/>
-        <v>632.22156651268801</v>
-      </c>
-      <c r="N43">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="7"/>
-        <v>108.17850674589438</v>
-      </c>
-      <c r="P43">
-        <f>(K43-L43)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R43">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S43">
         <f t="shared" si="9"/>
-        <v>206.87676821490885</v>
-      </c>
-      <c r="S43">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T43">
         <f t="shared" si="10"/>
-        <v>258.06870214706413</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="44" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F44">
         <v>1025</v>
       </c>
       <c r="G44">
-        <f t="shared" si="11"/>
+        <f>IF($F44 &lt; $C$11, IF($G43+$C$3 &lt; $C$7, $G43+$C$3, $C$7), IF($F44 &lt; $C$11+$C$12, $C$7, IF( $G43-$C$4 &gt; 0,$G43-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H44">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="4"/>
-        <v>1.9535621985714577</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="5"/>
-        <v>372.1535988278626</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>1.9535621985714577</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
-        <v>1.9535621985714577</v>
+        <v>0</v>
       </c>
       <c r="M44">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="6"/>
-        <v>634.1751287112595</v>
-      </c>
-      <c r="N44">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="7"/>
-        <v>110.13206894446584</v>
-      </c>
-      <c r="P44">
-        <f>(K44-L44)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R44">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="9"/>
-        <v>206.86475788456767</v>
-      </c>
-      <c r="S44">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="10"/>
-        <v>260.02222742605397</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="45" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F45">
         <v>1050</v>
       </c>
       <c r="G45">
-        <f t="shared" si="11"/>
+        <f>IF($F45 &lt; $C$11, IF($G44+$C$3 &lt; $C$7, $G44+$C$3, $C$7), IF($F45 &lt; $C$11+$C$12, $C$7, IF( $G44-$C$4 &gt; 0,$G44-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H45">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="4"/>
-        <v>1.0988787366964452</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="5"/>
-        <v>373.25247756455906</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>1.0988787366964452</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
-        <v>1.0988787366964452</v>
+        <v>0</v>
       </c>
       <c r="M45">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="6"/>
-        <v>635.27400744795591</v>
-      </c>
-      <c r="N45">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q45">
         <f t="shared" si="7"/>
-        <v>111.23094768116229</v>
-      </c>
-      <c r="P45">
-        <f>(K45-L45)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R45">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S45">
         <f t="shared" si="9"/>
-        <v>206.85800207375075</v>
-      </c>
-      <c r="S45">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="10"/>
-        <v>261.12108539548575</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="46" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F46">
         <v>1075</v>
       </c>
       <c r="G46">
-        <f t="shared" si="11"/>
+        <f>IF($F46 &lt; $C$11, IF($G45+$C$3 &lt; $C$7, $G45+$C$3, $C$7), IF($F46 &lt; $C$11+$C$12, $C$7, IF( $G45-$C$4 &gt; 0,$G45-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H46">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="4"/>
-        <v>0.24419527482143255</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>0.24419527482143255</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
-        <v>0.24419527482143255</v>
+        <v>0</v>
       </c>
       <c r="M46">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N46">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P46">
-        <f>(K46-L46)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R46">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S46">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="47" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F47">
         <v>1100</v>
       </c>
       <c r="G47">
-        <f t="shared" si="11"/>
+        <f>IF($F47 &lt; $C$11, IF($G46+$C$3 &lt; $C$7, $G46+$C$3, $C$7), IF($F47 &lt; $C$11+$C$12, $C$7, IF( $G46-$C$4 &gt; 0,$G46-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H47">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
@@ -8996,49 +9032,49 @@
         <v>0</v>
       </c>
       <c r="M47">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N47">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q47">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P47">
-        <f>(K47-L47)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R47">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S47">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S47">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="48" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F48">
         <v>1125</v>
       </c>
       <c r="G48">
-        <f t="shared" si="11"/>
+        <f>IF($F48 &lt; $C$11, IF($G47+$C$3 &lt; $C$7, $G47+$C$3, $C$7), IF($F48 &lt; $C$11+$C$12, $C$7, IF( $G47-$C$4 &gt; 0,$G47-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H48">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
@@ -9049,49 +9085,49 @@
         <v>0</v>
       </c>
       <c r="M48">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N48">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q48">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P48">
-        <f>(K48-L48)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R48">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S48">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S48">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="49" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F49">
         <v>1150</v>
       </c>
       <c r="G49">
-        <f t="shared" si="11"/>
+        <f>IF($F49 &lt; $C$11, IF($G48+$C$3 &lt; $C$7, $G48+$C$3, $C$7), IF($F49 &lt; $C$11+$C$12, $C$7, IF( $G48-$C$4 &gt; 0,$G48-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H49">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
@@ -9102,49 +9138,49 @@
         <v>0</v>
       </c>
       <c r="M49">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N49">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q49">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P49">
-        <f>(K49-L49)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R49">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S49">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S49">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="50" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F50">
         <v>1175</v>
       </c>
       <c r="G50">
-        <f t="shared" si="11"/>
+        <f>IF($F50 &lt; $C$11, IF($G49+$C$3 &lt; $C$7, $G49+$C$3, $C$7), IF($F50 &lt; $C$11+$C$12, $C$7, IF( $G49-$C$4 &gt; 0,$G49-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H50">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
@@ -9155,49 +9191,49 @@
         <v>0</v>
       </c>
       <c r="M50">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N50">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N50">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P50">
-        <f>(K50-L50)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R50">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S50">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="51" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F51">
         <v>1200</v>
       </c>
       <c r="G51">
-        <f t="shared" si="11"/>
+        <f>IF($F51 &lt; $C$11, IF($G50+$C$3 &lt; $C$7, $G50+$C$3, $C$7), IF($F51 &lt; $C$11+$C$12, $C$7, IF( $G50-$C$4 &gt; 0,$G50-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H51">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
@@ -9208,49 +9244,49 @@
         <v>0</v>
       </c>
       <c r="M51">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N51">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N51">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P51">
-        <f>(K51-L51)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R51">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S51">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T51">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="52" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F52">
         <v>1225</v>
       </c>
       <c r="G52">
-        <f t="shared" si="11"/>
+        <f>IF($F52 &lt; $C$11, IF($G51+$C$3 &lt; $C$7, $G51+$C$3, $C$7), IF($F52 &lt; $C$11+$C$12, $C$7, IF( $G51-$C$4 &gt; 0,$G51-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H52">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
@@ -9261,49 +9297,49 @@
         <v>0</v>
       </c>
       <c r="M52">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N52">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q52">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P52">
-        <f>(K52-L52)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R52">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S52">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S52">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="53" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F53">
         <v>1250</v>
       </c>
       <c r="G53">
-        <f t="shared" si="11"/>
+        <f>IF($F53 &lt; $C$11, IF($G52+$C$3 &lt; $C$7, $G52+$C$3, $C$7), IF($F53 &lt; $C$11+$C$12, $C$7, IF( $G52-$C$4 &gt; 0,$G52-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H53">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
@@ -9314,49 +9350,49 @@
         <v>0</v>
       </c>
       <c r="M53">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N53">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N53">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q53">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P53">
-        <f>(K53-L53)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R53">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S53">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S53">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T53">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="54" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F54">
         <v>1275</v>
       </c>
       <c r="G54">
-        <f t="shared" si="11"/>
+        <f>IF($F54 &lt; $C$11, IF($G53+$C$3 &lt; $C$7, $G53+$C$3, $C$7), IF($F54 &lt; $C$11+$C$12, $C$7, IF( $G53-$C$4 &gt; 0,$G53-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H54">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
@@ -9367,49 +9403,49 @@
         <v>0</v>
       </c>
       <c r="M54">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N54">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N54">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q54">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P54">
-        <f>(K54-L54)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
+        <v>0</v>
       </c>
       <c r="R54">
+        <f>Q54+R53</f>
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S54">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S54">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T54">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="55" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F55">
         <v>1300</v>
       </c>
       <c r="G55">
-        <f t="shared" si="11"/>
+        <f>IF($F55 &lt; $C$11, IF($G54+$C$3 &lt; $C$7, $G54+$C$3, $C$7), IF($F55 &lt; $C$11+$C$12, $C$7, IF( $G54-$C$4 &gt; 0,$G54-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H55">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
@@ -9420,49 +9456,49 @@
         <v>0</v>
       </c>
       <c r="M55">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N55">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N55">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q55">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P55">
-        <f>(K55-L55)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R55">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S55">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S55">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T55">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="56" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F56">
         <v>1325</v>
       </c>
       <c r="G56">
-        <f t="shared" si="11"/>
+        <f>IF($F56 &lt; $C$11, IF($G55+$C$3 &lt; $C$7, $G55+$C$3, $C$7), IF($F56 &lt; $C$11+$C$12, $C$7, IF( $G55-$C$4 &gt; 0,$G55-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H56">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
@@ -9473,49 +9509,49 @@
         <v>0</v>
       </c>
       <c r="M56">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N56">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N56">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q56">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P56">
-        <f>(K56-L56)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R56">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S56">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S56">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T56">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="57" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F57">
         <v>1350</v>
       </c>
       <c r="G57">
-        <f t="shared" si="11"/>
+        <f>IF($F57 &lt; $C$11, IF($G56+$C$3 &lt; $C$7, $G56+$C$3, $C$7), IF($F57 &lt; $C$11+$C$12, $C$7, IF( $G56-$C$4 &gt; 0,$G56-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H57">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
@@ -9526,49 +9562,49 @@
         <v>0</v>
       </c>
       <c r="M57">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N57">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N57">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q57">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P57">
-        <f>(K57-L57)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R57">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S57">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S57">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T57">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="58" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F58">
         <v>1375</v>
       </c>
       <c r="G58">
-        <f t="shared" si="11"/>
+        <f>IF($F58 &lt; $C$11, IF($G57+$C$3 &lt; $C$7, $G57+$C$3, $C$7), IF($F58 &lt; $C$11+$C$12, $C$7, IF( $G57-$C$4 &gt; 0,$G57-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H58">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I58">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
@@ -9579,49 +9615,49 @@
         <v>0</v>
       </c>
       <c r="M58">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N58">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N58">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P58">
-        <f>(K58-L58)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R58">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S58">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S58">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T58">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="59" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F59">
         <v>1400</v>
       </c>
       <c r="G59">
-        <f t="shared" si="11"/>
+        <f>IF($F59 &lt; $C$11, IF($G58+$C$3 &lt; $C$7, $G58+$C$3, $C$7), IF($F59 &lt; $C$11+$C$12, $C$7, IF( $G58-$C$4 &gt; 0,$G58-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H59">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
@@ -9632,49 +9668,49 @@
         <v>0</v>
       </c>
       <c r="M59">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N59">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N59">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P59">
-        <f>(K59-L59)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R59">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S59">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S59">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T59">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="60" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F60">
         <v>1425</v>
       </c>
       <c r="G60">
-        <f t="shared" si="11"/>
+        <f>IF($F60 &lt; $C$11, IF($G59+$C$3 &lt; $C$7, $G59+$C$3, $C$7), IF($F60 &lt; $C$11+$C$12, $C$7, IF( $G59-$C$4 &gt; 0,$G59-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H60">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
@@ -9685,49 +9721,49 @@
         <v>0</v>
       </c>
       <c r="M60">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N60">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N60">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q60">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P60">
-        <f>(K60-L60)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R60">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S60">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S60">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T60">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="61" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F61">
         <v>1450</v>
       </c>
       <c r="G61">
-        <f t="shared" si="11"/>
+        <f>IF($F61 &lt; $C$11, IF($G60+$C$3 &lt; $C$7, $G60+$C$3, $C$7), IF($F61 &lt; $C$11+$C$12, $C$7, IF( $G60-$C$4 &gt; 0,$G60-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H61">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
@@ -9738,49 +9774,49 @@
         <v>0</v>
       </c>
       <c r="M61">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N61">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N61">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q61">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P61">
-        <f>(K61-L61)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R61">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S61">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S61">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T61">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="62" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F62">
         <v>1475</v>
       </c>
       <c r="G62">
-        <f t="shared" si="11"/>
+        <f>IF($F62 &lt; $C$11, IF($G61+$C$3 &lt; $C$7, $G61+$C$3, $C$7), IF($F62 &lt; $C$11+$C$12, $C$7, IF( $G61-$C$4 &gt; 0,$G61-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H62">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
@@ -9791,49 +9827,49 @@
         <v>0</v>
       </c>
       <c r="M62">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N62">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N62">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q62">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P62">
-        <f>(K62-L62)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R62">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S62">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S62">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T62">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="63" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F63">
         <v>1500</v>
       </c>
       <c r="G63">
-        <f t="shared" si="11"/>
+        <f>IF($F63 &lt; $C$11, IF($G62+$C$3 &lt; $C$7, $G62+$C$3, $C$7), IF($F63 &lt; $C$11+$C$12, $C$7, IF( $G62-$C$4 &gt; 0,$G62-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H63">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
@@ -9844,49 +9880,49 @@
         <v>0</v>
       </c>
       <c r="M63">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N63">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N63">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q63">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P63">
-        <f>(K63-L63)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R63">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S63">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S63">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T63">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="64" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F64">
         <v>1525</v>
       </c>
       <c r="G64">
-        <f t="shared" si="11"/>
+        <f>IF($F64 &lt; $C$11, IF($G63+$C$3 &lt; $C$7, $G63+$C$3, $C$7), IF($F64 &lt; $C$11+$C$12, $C$7, IF( $G63-$C$4 &gt; 0,$G63-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H64">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
@@ -9897,49 +9933,49 @@
         <v>0</v>
       </c>
       <c r="M64">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N64">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N64">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q64">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P64">
-        <f>(K64-L64)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R64">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S64">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S64">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T64">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="65" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F65">
         <v>1550</v>
       </c>
       <c r="G65">
-        <f t="shared" si="11"/>
+        <f>IF($F65 &lt; $C$11, IF($G64+$C$3 &lt; $C$7, $G64+$C$3, $C$7), IF($F65 &lt; $C$11+$C$12, $C$7, IF( $G64-$C$4 &gt; 0,$G64-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H65">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
@@ -9950,49 +9986,49 @@
         <v>0</v>
       </c>
       <c r="M65">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N65">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N65">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q65">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P65">
-        <f>(K65-L65)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R65">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S65">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S65">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T65">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="66" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F66">
         <v>1575</v>
       </c>
       <c r="G66">
-        <f t="shared" si="11"/>
+        <f>IF($F66 &lt; $C$11, IF($G65+$C$3 &lt; $C$7, $G65+$C$3, $C$7), IF($F66 &lt; $C$11+$C$12, $C$7, IF( $G65-$C$4 &gt; 0,$G65-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H66">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
@@ -10003,49 +10039,49 @@
         <v>0</v>
       </c>
       <c r="M66">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N66">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q66">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P66">
-        <f>(K66-L66)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R66">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S66">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S66">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T66">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="67" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F67">
         <v>1600</v>
       </c>
       <c r="G67">
-        <f t="shared" si="11"/>
+        <f>IF($F67 &lt; $C$11, IF($G66+$C$3 &lt; $C$7, $G66+$C$3, $C$7), IF($F67 &lt; $C$11+$C$12, $C$7, IF( $G66-$C$4 &gt; 0,$G66-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H67">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I67">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
+        <v>172.56685718235462</v>
       </c>
       <c r="K67">
         <f t="shared" si="0"/>
@@ -10056,349 +10092,349 @@
         <v>0</v>
       </c>
       <c r="M67">
+        <f t="shared" si="5"/>
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N67">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N67">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q67">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P67">
-        <f>(K67-L67)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R67">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S67">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S67">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T67">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="68" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F68">
         <v>1625</v>
       </c>
       <c r="G68">
-        <f t="shared" si="11"/>
+        <f>IF($F68 &lt; $C$11, IF($G67+$C$3 &lt; $C$7, $G67+$C$3, $C$7), IF($F68 &lt; $C$11+$C$12, $C$7, IF( $G67-$C$4 &gt; 0,$G67-$C$4, 0)))</f>
         <v>0</v>
       </c>
       <c r="H68">
+        <f t="shared" si="2"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="3"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J68">
+        <v>172.56685718235462</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K74" si="11">I68+G68</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L74" si="12">I68-G68</f>
+        <v>0</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="5"/>
-        <v>373.49667283938049</v>
-      </c>
-      <c r="K68">
-        <f t="shared" ref="K68:K74" si="12">I68+G68</f>
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <f t="shared" ref="L68:L74" si="13">I68-G68</f>
-        <v>0</v>
-      </c>
-      <c r="M68">
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N68">
         <f t="shared" si="6"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N68">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q68">
         <f t="shared" si="7"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P68">
-        <f t="shared" ref="P68:P74" si="14">(K68-L68)/$C$14</f>
-        <v>0</v>
-      </c>
-      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
         <f t="shared" si="8"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R68">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S68">
         <f t="shared" si="9"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S68">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T68">
         <f t="shared" si="10"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="69" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F69">
         <v>1650</v>
       </c>
       <c r="G69">
+        <f>IF($F69 &lt; $C$11, IF($G68+$C$3 &lt; $C$7, $G68+$C$3, $C$7), IF($F69 &lt; $C$11+$C$12, $C$7, IF( $G68-$C$4 &gt; 0,$G68-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ref="H69:H74" si="13">H68+G69</f>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:I74" si="14" xml:space="preserve"> IF($F69 &lt; ($C$10 - $I68/$C$6*25), IF($I68+$C$5 &lt; $C$8, $I68+$C$5, $C$8), IF( $I68-$C$6 &gt; 0,$I68-$C$6, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J74" si="15">I69+J68</f>
+        <v>172.56685718235462</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H69">
-        <f t="shared" ref="H69:H74" si="15">H68+G69</f>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I69">
-        <f t="shared" ref="I69:I74" si="16" xml:space="preserve"> IF($F69 &lt; $C$11+$C$12, IF($I68+$C$5 &lt; $C$8, $I68+$C$5, $C$8), IF( $I68-$C$6 &gt; 0,$I68-$C$6, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <f t="shared" ref="J69:J74" si="17">I69+J68</f>
-        <v>373.49667283938049</v>
-      </c>
-      <c r="K69">
+      <c r="L69">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="M69">
-        <f t="shared" ref="M69:M74" si="18">K69+M68</f>
-        <v>635.51820272277735</v>
+        <f t="shared" ref="M69:M74" si="16">K69+M68</f>
+        <v>314.6164575087185</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N74" si="19">L69+N68</f>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="N69:N74" si="17">L69+N68</f>
+        <v>30.517256855990826</v>
       </c>
       <c r="Q69">
-        <f t="shared" ref="Q69:Q74" si="20">P69+Q68</f>
-        <v>90.352251683929907</v>
+        <f t="shared" ref="Q69:Q74" si="18">360/(2*PI())*$P$3*(K69-L69)/$C$14</f>
+        <v>0</v>
       </c>
       <c r="R69">
-        <f t="shared" ref="R69:R74" si="21">R68+((L69+K69)/2*COS(RADIANS(Q69)))</f>
-        <v>206.85650078245811</v>
+        <f t="shared" ref="R69:R74" si="19">Q69+R68</f>
+        <v>89.534293539041443</v>
       </c>
       <c r="S69">
-        <f t="shared" ref="S69:S74" si="22">S68+((L69+K69)/2*SIN(RADIANS(Q69)))</f>
-        <v>261.36527605535946</v>
+        <f t="shared" ref="S69:S74" si="20">S68+$P$3*((L69+K69)/2*COS(RADIANS(R69)))</f>
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T69">
+        <f t="shared" ref="T69:T74" si="21">T68+$P$3*((L69+K69)/2*SIN(RADIANS(R69)))</f>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="70" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F70">
         <v>1675</v>
       </c>
       <c r="G70">
+        <f>IF($F70 &lt; $C$11, IF($G69+$C$3 &lt; $C$7, $G69+$C$3, $C$7), IF($F70 &lt; $C$11+$C$12, $C$7, IF( $G69-$C$4 &gt; 0,$G69-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="13"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="15"/>
+        <v>172.56685718235462</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="15"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I70">
+      <c r="L70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J70">
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N70">
         <f t="shared" si="17"/>
-        <v>373.49667283938049</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M70">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q70">
         <f t="shared" si="18"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="R70">
         <f t="shared" si="19"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q70">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S70">
         <f t="shared" si="20"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R70">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T70">
         <f t="shared" si="21"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="22"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="71" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F71">
         <v>1700</v>
       </c>
       <c r="G71">
+        <f>IF($F71 &lt; $C$11, IF($G70+$C$3 &lt; $C$7, $G70+$C$3, $C$7), IF($F71 &lt; $C$11+$C$12, $C$7, IF( $G70-$C$4 &gt; 0,$G70-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="13"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="15"/>
+        <v>172.56685718235462</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H71">
-        <f t="shared" si="15"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I71">
+      <c r="L71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J71">
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N71">
         <f t="shared" si="17"/>
-        <v>373.49667283938049</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M71">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q71">
         <f t="shared" si="18"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="R71">
         <f t="shared" si="19"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q71">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S71">
         <f t="shared" si="20"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R71">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T71">
         <f t="shared" si="21"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="22"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="72" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F72">
         <v>1725</v>
       </c>
       <c r="G72">
+        <f>IF($F72 &lt; $C$11, IF($G71+$C$3 &lt; $C$7, $G71+$C$3, $C$7), IF($F72 &lt; $C$11+$C$12, $C$7, IF( $G71-$C$4 &gt; 0,$G71-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="13"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="15"/>
+        <v>172.56685718235462</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H72">
-        <f t="shared" si="15"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I72">
+      <c r="L72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J72">
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N72">
         <f t="shared" si="17"/>
-        <v>373.49667283938049</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M72">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q72">
         <f t="shared" si="18"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="R72">
         <f t="shared" si="19"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q72">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S72">
         <f t="shared" si="20"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R72">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T72">
         <f t="shared" si="21"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="22"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="73" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F73">
         <v>1750</v>
       </c>
       <c r="G73">
+        <f>IF($F73 &lt; $C$11, IF($G72+$C$3 &lt; $C$7, $G72+$C$3, $C$7), IF($F73 &lt; $C$11+$C$12, $C$7, IF( $G72-$C$4 &gt; 0,$G72-$C$4, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="13"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="15"/>
+        <v>172.56685718235462</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H73">
-        <f t="shared" si="15"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I73">
+      <c r="L73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J73">
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N73">
         <f t="shared" si="17"/>
-        <v>373.49667283938049</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M73">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q73">
         <f t="shared" si="18"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="R73">
         <f t="shared" si="19"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q73">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S73">
         <f t="shared" si="20"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R73">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T73">
         <f t="shared" si="21"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="22"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
       </c>
     </row>
-    <row r="74" spans="6:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F74">
         <v>1775</v>
       </c>
@@ -10407,53 +10443,70 @@
         <v>0</v>
       </c>
       <c r="H74">
+        <f t="shared" si="13"/>
+        <v>142.04960032636382</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="15"/>
-        <v>262.02152988339679</v>
-      </c>
-      <c r="I74">
+        <v>172.56685718235462</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J74">
+        <v>314.6164575087185</v>
+      </c>
+      <c r="N74">
         <f t="shared" si="17"/>
-        <v>373.49667283938049</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M74">
+        <v>30.517256855990826</v>
+      </c>
+      <c r="Q74">
         <f t="shared" si="18"/>
-        <v>635.51820272277735</v>
-      </c>
-      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <f t="shared" si="19"/>
-        <v>111.47514295598373</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q74">
+        <v>89.534293539041443</v>
+      </c>
+      <c r="S74">
         <f t="shared" si="20"/>
-        <v>90.352251683929907</v>
-      </c>
-      <c r="R74">
+        <v>58.254946702901613</v>
+      </c>
+      <c r="T74">
         <f t="shared" si="21"/>
-        <v>206.85650078245811</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="22"/>
-        <v>261.36527605535946</v>
+        <v>62.745789782483726</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>90</v>
+      </c>
+      <c r="D85">
+        <f>PI()/2*C14/P3</f>
+        <v>285.57692307692309</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Firmware/Examples/turnMaze/simulacionGiro.xlsx
+++ b/Firmware/Examples/turnMaze/simulacionGiro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>accW</t>
   </si>
@@ -319,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -340,6 +340,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,79 +456,79 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.098878736696445</c:v>
+                  <c:v>2.647482478011952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.197757473392889</c:v>
+                  <c:v>5.294964956023904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.296636210089334</c:v>
+                  <c:v>7.942447434035854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.395514946785778</c:v>
+                  <c:v>10.58992991204781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.49439368348222</c:v>
+                  <c:v>13.23741239005976</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.59327242017867</c:v>
+                  <c:v>15.88489486807171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.69215115687511</c:v>
+                  <c:v>18.53237734608366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.79102989357156</c:v>
+                  <c:v>21.17985982409561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.76800865066574</c:v>
+                  <c:v>23.70544232250531</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.86688738736219</c:v>
+                  <c:v>25.35292480051725</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.96576612405863</c:v>
+                  <c:v>27.00040727852921</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.06464486075508</c:v>
+                  <c:v>25.71903201785324</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.16352359745152</c:v>
+                  <c:v>24.43765675717728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.88214833677556</c:v>
+                  <c:v>23.15628149650132</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.6007730760996</c:v>
+                  <c:v>21.87490623582536</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.31939781542364</c:v>
+                  <c:v>20.5935309751494</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.03802255474768</c:v>
+                  <c:v>18.31215571447344</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14.75664729407172</c:v>
+                  <c:v>16.03078045379748</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.47527203339575</c:v>
+                  <c:v>13.74940519312151</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.19389677271979</c:v>
+                  <c:v>11.46802993244555</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.912521512043827</c:v>
+                  <c:v>9.186654671769588</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.631146251367865</c:v>
+                  <c:v>6.905279411093626</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.349770990691903</c:v>
+                  <c:v>4.623904150417664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.068395730015941</c:v>
+                  <c:v>2.342528889741702</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0.183053608668001</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.0</c:v>
@@ -700,79 +701,79 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0988787366964447</c:v>
+                  <c:v>0.647482478011952</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.197757473392889</c:v>
+                  <c:v>1.294964956023903</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.296636210089334</c:v>
+                  <c:v>1.942447434035855</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.395514946785779</c:v>
+                  <c:v>2.589929912047807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.494393683482224</c:v>
+                  <c:v>3.237412390059758</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.593272420178669</c:v>
+                  <c:v>3.88489486807171</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.692151156875115</c:v>
+                  <c:v>4.532377346083661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.79102989357156</c:v>
+                  <c:v>5.179859824095614</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.011808609870267</c:v>
+                  <c:v>5.949242281709826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.110687346566712</c:v>
+                  <c:v>7.596724759721777</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.209566083263157</c:v>
+                  <c:v>9.244207237733729</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.308444819959602</c:v>
+                  <c:v>7.962831977057768</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.407323556656047</c:v>
+                  <c:v>6.681456716381806</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.125948295980084</c:v>
+                  <c:v>5.400081455705844</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.844573035304123</c:v>
+                  <c:v>4.118706195029883</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.563197774628161</c:v>
+                  <c:v>2.837330934353922</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2818225139522</c:v>
+                  <c:v>2.55595567367796</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.000447253276238</c:v>
+                  <c:v>2.274580413002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.719071992600275</c:v>
+                  <c:v>1.993205152326037</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.437696731924313</c:v>
+                  <c:v>1.711829891650074</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.156321471248351</c:v>
+                  <c:v>1.430454630974112</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.125053789427612</c:v>
+                  <c:v>1.14907937029815</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.406429050103574</c:v>
+                  <c:v>0.867704109622188</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.687804310779536</c:v>
+                  <c:v>0.586328848946225</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0</c:v>
+                  <c:v>0.183053608668001</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.0</c:v>
@@ -1924,79 +1925,79 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.098878736696445</c:v>
+                  <c:v>1.647482478011952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.197757473392889</c:v>
+                  <c:v>3.294964956023903</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.296636210089334</c:v>
+                  <c:v>4.942447434035854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.395514946785779</c:v>
+                  <c:v>6.589929912047806</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.494393683482224</c:v>
+                  <c:v>8.237412390059758</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.59327242017867</c:v>
+                  <c:v>9.88489486807171</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.692151156875115</c:v>
+                  <c:v>11.53237734608366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.79102989357156</c:v>
+                  <c:v>13.17985982409561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.889908630268004</c:v>
+                  <c:v>14.82734230210757</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.98878736696445</c:v>
+                  <c:v>16.47482478011952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0876661036609</c:v>
+                  <c:v>18.12230725813147</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.18654484035734</c:v>
+                  <c:v>16.84093199745551</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.28542357705379</c:v>
+                  <c:v>15.55955673677954</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.00404831637782</c:v>
+                  <c:v>14.27818147610358</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.72267305570186</c:v>
+                  <c:v>12.99680621542762</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.4412977950259</c:v>
+                  <c:v>11.71543095475166</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.159922534349938</c:v>
+                  <c:v>10.4340556940757</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.878547273673976</c:v>
+                  <c:v>9.152680433399737</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.597172012998014</c:v>
+                  <c:v>7.871305172723775</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.315796752322051</c:v>
+                  <c:v>6.589929912047813</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.03442149164609</c:v>
+                  <c:v>5.308554651371851</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.753046230970127</c:v>
+                  <c:v>4.027179390695888</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.471670970294165</c:v>
+                  <c:v>2.745804130019926</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.190295709618202</c:v>
+                  <c:v>1.464428869343964</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0</c:v>
+                  <c:v>0.183053608668001</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.0</c:v>
@@ -2449,217 +2450,217 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.098878736696445</c:v>
+                  <c:v>2.647482478011952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.296636210089334</c:v>
+                  <c:v>7.942447434035855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.59327242017867</c:v>
+                  <c:v>15.88489486807171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.98878736696444</c:v>
+                  <c:v>26.47482478011952</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.48318105044667</c:v>
+                  <c:v>39.71223717017927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.07645347062534</c:v>
+                  <c:v>55.597132038251</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.76860462750045</c:v>
+                  <c:v>74.12950938433465</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.559634521072</c:v>
+                  <c:v>95.30936920843027</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.32764317173774</c:v>
+                  <c:v>119.0148115309356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>114.1945305590999</c:v>
+                  <c:v>144.3677363314528</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>135.1602966831586</c:v>
+                  <c:v>171.368143609982</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157.2249415439136</c:v>
+                  <c:v>197.0871756278353</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>180.3884651413652</c:v>
+                  <c:v>221.5248323850125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>202.2706134781407</c:v>
+                  <c:v>244.6811138815139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>222.8713865542404</c:v>
+                  <c:v>266.5560201173392</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>242.190784369664</c:v>
+                  <c:v>287.1495510924886</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>259.2288069244117</c:v>
+                  <c:v>305.461706806962</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>273.9854542184834</c:v>
+                  <c:v>321.4924872607595</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>286.4607262518792</c:v>
+                  <c:v>335.241892453881</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>296.654623024599</c:v>
+                  <c:v>346.7099223863265</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>304.5671445366428</c:v>
+                  <c:v>355.8965770580962</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>310.1982907880106</c:v>
+                  <c:v>362.8018564691898</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>313.5480617787026</c:v>
+                  <c:v>367.4257606196074</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.7682895093491</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>314.6164575087185</c:v>
+                  <c:v>369.9513431180171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,217 +2703,217 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0988787366964447</c:v>
+                  <c:v>0.647482478011952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.296636210089334</c:v>
+                  <c:v>1.942447434035855</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.593272420178669</c:v>
+                  <c:v>3.88489486807171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.988787366964448</c:v>
+                  <c:v>6.474824780119516</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.483181050446672</c:v>
+                  <c:v>9.712237170179275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.076453470625341</c:v>
+                  <c:v>13.59713203825098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.768604627500456</c:v>
+                  <c:v>18.12950938433465</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.559634521072016</c:v>
+                  <c:v>23.30936920843026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.571443130942282</c:v>
+                  <c:v>29.25861149014009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.682130477508994</c:v>
+                  <c:v>36.85533624986186</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.89169656077215</c:v>
+                  <c:v>46.0995434875956</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.20014138073175</c:v>
+                  <c:v>54.06237546465336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.6074649373878</c:v>
+                  <c:v>60.74383218103517</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.73341323336788</c:v>
+                  <c:v>66.14391363674101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.57798626867201</c:v>
+                  <c:v>70.2626198317709</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.14118404330017</c:v>
+                  <c:v>73.09995076612483</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.42300655725237</c:v>
+                  <c:v>75.65590643980279</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.42345381052861</c:v>
+                  <c:v>77.93048685280479</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.14252580312888</c:v>
+                  <c:v>79.92369200513083</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.5802225350532</c:v>
+                  <c:v>81.6355218967809</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.73654400630155</c:v>
+                  <c:v>83.06597652775501</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.61149021687394</c:v>
+                  <c:v>84.21505589805317</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.20506116677036</c:v>
+                  <c:v>85.08276000767535</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.66908885662157</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>30.51725685599083</c:v>
+                  <c:v>85.85214246528957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3214,217 +3215,217 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.483405839437695</c:v>
+                  <c:v>0.72599094789519</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.67952700051911</c:v>
+                  <c:v>2.525004490439838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.470777220036146</c:v>
+                  <c:v>5.219087367538243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.849854290223527</c:v>
+                  <c:v>8.79718633056535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.801144685872738</c:v>
+                  <c:v>13.23566778848646</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.296082036331</c:v>
+                  <c:v>18.4912932556847</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.28764331895393</c:v>
+                  <c:v>24.49289172496712</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.70421052151556</c:v>
+                  <c:v>31.1320758665935</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.44658975113316</c:v>
+                  <c:v>38.25874398646804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.41427832022504</c:v>
+                  <c:v>45.7208467546666</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.4948689636396</c:v>
+                  <c:v>53.34836357816952</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.56574130950631</c:v>
+                  <c:v>59.82883864387612</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.49593778026707</c:v>
+                  <c:v>65.19731817365687</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.42840299065193</c:v>
+                  <c:v>69.50848573374473</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52.4388236431008</c:v>
+                  <c:v>72.83511917325264</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.61850427098542</c:v>
+                  <c:v>75.26629771572723</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.12475364889056</c:v>
+                  <c:v>76.96553479111774</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57.10741932638228</c:v>
+                  <c:v>78.08986867762273</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>57.70257449605195</c:v>
+                  <c:v>78.78314938864198</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.02832377847511</c:v>
+                  <c:v>79.17155036435602</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.1822239312435</c:v>
+                  <c:v>79.36078692219296</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>58.23985013517028</c:v>
+                  <c:v>79.43455519579953</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>58.25410444361692</c:v>
+                  <c:v>79.45377023779568</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.4562658810424</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>58.25494670290161</c:v>
+                  <c:v>79.45657783644823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3439,217 +3440,217 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00658263439175403</c:v>
+                  <c:v>0.00993230848470453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0460720680092146</c:v>
+                  <c:v>0.0695164820625665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.164475858603428</c:v>
+                  <c:v>0.248171040709074</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.427255773218967</c:v>
+                  <c:v>0.644665442667485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.918725809449417</c:v>
+                  <c:v>1.38620596596375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.740796452739551</c:v>
+                  <c:v>2.626528887036044</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.010712909501279</c:v>
+                  <c:v>4.542466206863319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.857379664203893</c:v>
+                  <c:v>7.328365331666071</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.409478898444938</c:v>
+                  <c:v>11.17811876651924</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.7454497412984</c:v>
+                  <c:v>16.20972112330814</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.93037775101521</c:v>
+                  <c:v>22.52090065705457</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.01445117266</c:v>
+                  <c:v>29.05109536492929</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.03162405204549</c:v>
+                  <c:v>35.64119608785644</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.92059336148229</c:v>
+                  <c:v>42.14149102492246</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.54966016990448</c:v>
+                  <c:v>48.41393153553297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.80099804716247</c:v>
+                  <c:v>54.33418245036852</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47.5561057722222</c:v>
+                  <c:v>59.77500898331536</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.7322561979897</c:v>
+                  <c:v>64.64695657248919</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55.27505595322614</c:v>
+                  <c:v>68.89070042146602</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58.15134710301469</c:v>
+                  <c:v>72.46968696545643</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>60.34286478040765</c:v>
+                  <c:v>75.36350615904439</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.84090811899948</c:v>
+                  <c:v>77.56226904799106</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62.64216906091108</c:v>
+                  <c:v>79.06214597032873</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.86214207767225</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>62.74578978248372</c:v>
+                  <c:v>79.96214159109018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6472,8 +6473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6592,7 +6593,7 @@
       </c>
       <c r="P3">
         <f>2*PI()*C15/(C16)</f>
-        <v>0.5445427266222308</v>
+        <v>0.54628805587422513</v>
       </c>
       <c r="Q3">
         <f>(K3-L3)/$C$14</f>
@@ -6630,43 +6631,43 @@
       </c>
       <c r="I4">
         <f xml:space="preserve"> IF($F4 &lt; ($C$10 - $I3/$C$6*25), IF($I3+$C$5 &lt; $C$8, $I3+$C$5, $C$8), IF( $I3-$C$6 &gt; 0,$I3-$C$6, 0))</f>
-        <v>1.0988787366964448</v>
+        <v>1.6474824780119517</v>
       </c>
       <c r="J4">
         <f>I4+J3</f>
-        <v>1.0988787366964448</v>
+        <v>1.6474824780119517</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K67" si="0">I4+G4</f>
-        <v>2.0988787366964448</v>
+        <v>2.6474824780119519</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L67" si="1">I4-G4</f>
-        <v>9.8878736696444758E-2</v>
+        <v>0.64748247801195169</v>
       </c>
       <c r="M4">
         <f>K4+M3</f>
-        <v>2.0988787366964448</v>
+        <v>2.6474824780119519</v>
       </c>
       <c r="N4">
         <f>L4+N3</f>
-        <v>9.8878736696444758E-2</v>
+        <v>0.64748247801195169</v>
       </c>
       <c r="Q4">
         <f>360/(2*PI())*$P$3*(K4-L4)/$C$14</f>
-        <v>0.63030303030303025</v>
+        <v>0.63232323232323229</v>
       </c>
       <c r="R4">
         <f>Q4+R3</f>
-        <v>0.63030303030303025</v>
+        <v>0.63232323232323229</v>
       </c>
       <c r="S4">
         <f>S3+$P$3*((L4+K4)/2*COS(R4))</f>
-        <v>0.48340583943769511</v>
+        <v>0.72599094789519003</v>
       </c>
       <c r="T4">
         <f>T3+$P$3*((L4+K4)/2*SIN(RADIANS(R4)))</f>
-        <v>6.5826343917540333E-3</v>
+        <v>9.9323084847045291E-3</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
@@ -6674,8 +6675,8 @@
         <v>4</v>
       </c>
       <c r="C5" s="6">
-        <f>120*D5*2/(2*3.14*15.65) /100</f>
-        <v>1.0988787366964448</v>
+        <f>180*D5*2/(2*PI()*15.65) /100</f>
+        <v>1.6474824780119517</v>
       </c>
       <c r="D5" s="7">
         <v>45</v>
@@ -6693,43 +6694,43 @@
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I68" si="3" xml:space="preserve"> IF($F5 &lt; ($C$10 - $I4/$C$6*25), IF($I4+$C$5 &lt; $C$8, $I4+$C$5, $C$8), IF( $I4-$C$6 &gt; 0,$I4-$C$6, 0))</f>
-        <v>2.1977574733928895</v>
+        <v>3.2949649560239034</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J68" si="4">I5+J4</f>
-        <v>3.2966362100893343</v>
+        <v>4.9424474340358548</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>4.1977574733928895</v>
+        <v>5.2949649560239038</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0.19775747339288952</v>
+        <v>1.2949649560239034</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M68" si="5">K5+M4</f>
-        <v>6.2966362100893338</v>
+        <v>7.9424474340358557</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N68" si="6">L5+N4</f>
-        <v>0.29663621008933427</v>
+        <v>1.9424474340358551</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q68" si="7">360/(2*PI())*$P$3*(K5-L5)/$C$14</f>
-        <v>1.2606060606060605</v>
+        <v>1.2646464646464646</v>
       </c>
       <c r="R5">
         <f t="shared" ref="R5:R68" si="8">Q5+R4</f>
-        <v>1.8909090909090907</v>
+        <v>1.896969696969697</v>
       </c>
       <c r="S5">
         <f t="shared" ref="S5:S68" si="9">S4+$P$3*((L5+K5)/2*COS(RADIANS(R5)))</f>
-        <v>1.6795270005191103</v>
+        <v>2.5250044904398381</v>
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T68" si="10">T4+$P$3*((L5+K5)/2*SIN(RADIANS(R5)))</f>
-        <v>4.607206800921463E-2</v>
+        <v>6.9516482062566498E-2</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
@@ -6756,43 +6757,43 @@
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>3.2966362100893343</v>
+        <v>4.9424474340358548</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>6.5932724201786685</v>
+        <v>9.8848948680717097</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>6.2966362100893338</v>
+        <v>7.9424474340358548</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>0.29663621008933427</v>
+        <v>1.9424474340358548</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
-        <v>12.593272420178668</v>
+        <v>15.884894868071711</v>
       </c>
       <c r="N6">
         <f t="shared" si="6"/>
-        <v>0.59327242017866855</v>
+        <v>3.8848948680717097</v>
       </c>
       <c r="Q6">
         <f t="shared" si="7"/>
-        <v>1.8909090909090909</v>
+        <v>1.8969696969696972</v>
       </c>
       <c r="R6">
         <f t="shared" si="8"/>
-        <v>3.7818181818181813</v>
+        <v>3.7939393939393939</v>
       </c>
       <c r="S6">
         <f t="shared" si="9"/>
-        <v>3.4707772200361457</v>
+        <v>5.2190873675382434</v>
       </c>
       <c r="T6">
         <f t="shared" si="10"/>
-        <v>0.16447585860342803</v>
+        <v>0.24817104070907423</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
@@ -6819,43 +6820,43 @@
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>4.395514946785779</v>
+        <v>6.5899299120478068</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>10.988787366964448</v>
+        <v>16.474824780119516</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>8.395514946785779</v>
+        <v>10.589929912047808</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>0.39551494678577903</v>
+        <v>2.5899299120478068</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>20.988787366964445</v>
+        <v>26.474824780119519</v>
       </c>
       <c r="N7">
         <f t="shared" si="6"/>
-        <v>0.98878736696444758</v>
+        <v>6.4748247801195165</v>
       </c>
       <c r="Q7">
         <f t="shared" si="7"/>
-        <v>2.521212121212121</v>
+        <v>2.5292929292929291</v>
       </c>
       <c r="R7">
         <f t="shared" si="8"/>
-        <v>6.3030303030303028</v>
+        <v>6.3232323232323235</v>
       </c>
       <c r="S7">
         <f>S6+$P$3*((L7+K7)/2*COS(RADIANS(R7)))</f>
-        <v>5.8498542902235275</v>
+        <v>8.7971863305653493</v>
       </c>
       <c r="T7">
         <f t="shared" si="10"/>
-        <v>0.42725577321896668</v>
+        <v>0.64466544266748549</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
@@ -6882,43 +6883,43 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>5.4943936834822242</v>
+        <v>8.2374123900597578</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>16.483181050446674</v>
+        <v>24.712237170179272</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>10.494393683482224</v>
+        <v>13.237412390059758</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0.49439368348222423</v>
+        <v>3.2374123900597578</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
-        <v>31.483181050446667</v>
+        <v>39.712237170179279</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>1.4831810504466718</v>
+        <v>9.7122371701792751</v>
       </c>
       <c r="Q8">
         <f t="shared" si="7"/>
-        <v>3.1515151515151514</v>
+        <v>3.1616161616161618</v>
       </c>
       <c r="R8">
         <f t="shared" si="8"/>
-        <v>9.4545454545454533</v>
+        <v>9.4848484848484844</v>
       </c>
       <c r="S8">
         <f t="shared" si="9"/>
-        <v>8.8011446858727389</v>
+        <v>13.23566778848646</v>
       </c>
       <c r="T8">
         <f t="shared" si="10"/>
-        <v>0.91872580944941717</v>
+        <v>1.3862059659637502</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
@@ -6938,43 +6939,43 @@
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>6.5932724201786694</v>
+        <v>9.8848948680717097</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>23.076453470625346</v>
+        <v>34.597132038250983</v>
       </c>
       <c r="K9">
         <f>I9+G9</f>
-        <v>12.593272420178669</v>
+        <v>15.88489486807171</v>
       </c>
       <c r="L9">
         <f>I9-G9</f>
-        <v>0.59327242017866944</v>
+        <v>3.8848948680717097</v>
       </c>
       <c r="M9">
         <f>K9+M8</f>
-        <v>44.076453470625339</v>
+        <v>55.59713203825099</v>
       </c>
       <c r="N9">
         <f t="shared" si="6"/>
-        <v>2.0764534706253412</v>
+        <v>13.597132038250985</v>
       </c>
       <c r="Q9">
         <f t="shared" si="7"/>
-        <v>3.7818181818181817</v>
+        <v>3.7939393939393944</v>
       </c>
       <c r="R9">
         <f t="shared" si="8"/>
-        <v>13.236363636363635</v>
+        <v>13.278787878787879</v>
       </c>
       <c r="S9">
         <f t="shared" si="9"/>
-        <v>12.296082036330995</v>
+        <v>18.491293255684695</v>
       </c>
       <c r="T9">
         <f t="shared" si="10"/>
-        <v>1.7407964527395512</v>
+        <v>2.6265288870360446</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
@@ -6985,7 +6986,9 @@
         <f>_xlfn.FLOOR.MATH((C11+C12+C13)/25)*25</f>
         <v>625</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F10">
         <v>175</v>
       </c>
@@ -6999,43 +7002,43 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>7.6921511568751146</v>
+        <v>11.532377346083662</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>30.768604627500459</v>
+        <v>46.129509384334646</v>
       </c>
       <c r="K10">
         <f>I10+G10</f>
-        <v>14.692151156875115</v>
+        <v>18.532377346083663</v>
       </c>
       <c r="L10">
         <f>I10-G10</f>
-        <v>0.69215115687511464</v>
+        <v>4.5323773460836616</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>58.768604627500451</v>
+        <v>74.129509384334654</v>
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
-        <v>2.7686046275004559</v>
+        <v>18.129509384334646</v>
       </c>
       <c r="Q10">
         <f t="shared" si="7"/>
-        <v>4.4121212121212121</v>
+        <v>4.426262626262627</v>
       </c>
       <c r="R10">
         <f t="shared" si="8"/>
-        <v>17.648484848484848</v>
+        <v>17.705050505050508</v>
       </c>
       <c r="S10">
         <f t="shared" si="9"/>
-        <v>16.287643318953933</v>
+        <v>24.492891724967116</v>
       </c>
       <c r="T10">
         <f t="shared" si="10"/>
-        <v>3.0107129095012786</v>
+        <v>4.5424662068633195</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
@@ -7062,43 +7065,43 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>8.7910298935715598</v>
+        <v>13.179859824095614</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>39.55963452107202</v>
+        <v>59.309369208430262</v>
       </c>
       <c r="K11">
         <f>I11+G11</f>
-        <v>16.791029893571562</v>
+        <v>21.179859824095615</v>
       </c>
       <c r="L11">
         <f>I11-G11</f>
-        <v>0.79102989357155984</v>
+        <v>5.1798598240956135</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>75.559634521072013</v>
+        <v>95.309369208430269</v>
       </c>
       <c r="N11">
         <f t="shared" si="6"/>
-        <v>3.5596345210720157</v>
+        <v>23.309369208430262</v>
       </c>
       <c r="Q11">
         <f t="shared" si="7"/>
-        <v>5.042424242424242</v>
+        <v>5.0585858585858583</v>
       </c>
       <c r="R11">
         <f t="shared" si="8"/>
-        <v>22.690909090909091</v>
+        <v>22.763636363636365</v>
       </c>
       <c r="S11">
         <f t="shared" si="9"/>
-        <v>20.704210521515559</v>
+        <v>31.1320758665935</v>
       </c>
       <c r="T11">
         <f t="shared" si="10"/>
-        <v>4.8573796642038936</v>
+        <v>7.3283653316660713</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
@@ -7124,43 +7127,43 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>9.889908630268005</v>
+        <v>14.827342302107565</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>49.449543151340023</v>
+        <v>74.136711510537822</v>
       </c>
       <c r="K12">
         <f>I12+G12</f>
-        <v>18.768008650665742</v>
+        <v>23.705442322505306</v>
       </c>
       <c r="L12">
         <f>I12-G12</f>
-        <v>1.0118086098702666</v>
+        <v>5.9492422817098269</v>
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
-        <v>94.327643171737748</v>
+        <v>119.01481153093557</v>
       </c>
       <c r="N12">
         <f t="shared" si="6"/>
-        <v>4.5714431309422823</v>
+        <v>29.25861149014009</v>
       </c>
       <c r="Q12">
         <f t="shared" si="7"/>
-        <v>5.5958933461900893</v>
+        <v>5.613828901786853</v>
       </c>
       <c r="R12">
         <f t="shared" si="8"/>
-        <v>28.28680243709918</v>
+        <v>28.377465265423218</v>
       </c>
       <c r="S12">
         <f t="shared" si="9"/>
-        <v>25.44658975113316</v>
+        <v>38.258743986468048</v>
       </c>
       <c r="T12">
         <f t="shared" si="10"/>
-        <v>7.4094788984449389</v>
+        <v>11.178118766519241</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
@@ -7187,43 +7190,43 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>10.98878736696445</v>
+        <v>16.474824780119516</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>60.438330518304475</v>
+        <v>90.611536290657341</v>
       </c>
       <c r="K13">
         <f>I13+G13</f>
-        <v>19.866887387362191</v>
+        <v>25.352924800517254</v>
       </c>
       <c r="L13">
         <f>I13-G13</f>
-        <v>2.1106873465667118</v>
+        <v>7.5967247597217771</v>
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
-        <v>114.19453055909995</v>
+        <v>144.36773633145282</v>
       </c>
       <c r="N13">
         <f t="shared" si="6"/>
-        <v>6.682130477508994</v>
+        <v>36.855336249861864</v>
       </c>
       <c r="Q13">
         <f t="shared" si="7"/>
-        <v>5.5958933461900893</v>
+        <v>5.613828901786853</v>
       </c>
       <c r="R13">
         <f t="shared" si="8"/>
-        <v>33.882695783289272</v>
+        <v>33.991294167210071</v>
       </c>
       <c r="S13">
         <f t="shared" si="9"/>
-        <v>30.414278320225044</v>
+        <v>45.720846754666596</v>
       </c>
       <c r="T13">
         <f t="shared" si="10"/>
-        <v>10.745449741298396</v>
+        <v>16.209721123308135</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
@@ -7249,43 +7252,43 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>12.087666103660895</v>
+        <v>18.122307258131467</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>72.525996621965376</v>
+        <v>108.73384354878881</v>
       </c>
       <c r="K14">
         <f>I14+G14</f>
-        <v>20.965766124058632</v>
+        <v>27.000407278529206</v>
       </c>
       <c r="L14">
         <f>I14-G14</f>
-        <v>3.209566083263157</v>
+        <v>9.244207237733729</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>135.16029668315858</v>
+        <v>171.36814360998201</v>
       </c>
       <c r="N14">
         <f t="shared" si="6"/>
-        <v>9.8916965607721501</v>
+        <v>46.099543487595597</v>
       </c>
       <c r="Q14">
         <f t="shared" si="7"/>
-        <v>5.5958933461900893</v>
+        <v>5.613828901786853</v>
       </c>
       <c r="R14">
         <f t="shared" si="8"/>
-        <v>39.47858912947936</v>
+        <v>39.605123068996924</v>
       </c>
       <c r="S14">
         <f t="shared" si="9"/>
-        <v>35.494868963639604</v>
+        <v>53.348363578169518</v>
       </c>
       <c r="T14">
         <f t="shared" si="10"/>
-        <v>14.930377751015214</v>
+        <v>22.520900657054568</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
@@ -7293,7 +7296,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="16">
-        <v>15.6</v>
+        <v>15.65</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>29</v>
@@ -7311,43 +7314,43 @@
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>13.186544840357341</v>
+        <v>16.840931997455506</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>85.712541462322719</v>
+        <v>125.57477554624433</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>22.064644860755081</v>
+        <v>25.719032017853245</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>4.3084448199596022</v>
+        <v>7.9628319770577676</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>157.22494154391364</v>
+        <v>197.08717562783525</v>
       </c>
       <c r="N15">
         <f t="shared" si="6"/>
-        <v>14.200141380731752</v>
+        <v>54.062375464653364</v>
       </c>
       <c r="Q15">
         <f t="shared" si="7"/>
-        <v>5.5958933461900893</v>
+        <v>5.613828901786853</v>
       </c>
       <c r="R15">
         <f t="shared" si="8"/>
-        <v>45.074482475669448</v>
+        <v>45.218951970783777</v>
       </c>
       <c r="S15">
         <f t="shared" si="9"/>
-        <v>40.565741309506308</v>
+        <v>59.828838643876118</v>
       </c>
       <c r="T15">
         <f t="shared" si="10"/>
-        <v>20.014451172659996</v>
+        <v>29.051095364929289</v>
       </c>
     </row>
     <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7374,43 +7377,43 @@
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>14.285423577053786</v>
+        <v>15.559556736779545</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>99.99796503937651</v>
+        <v>141.13433228302387</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>23.163523597451523</v>
+        <v>24.437656757177283</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>5.4073235566560474</v>
+        <v>6.6814567163818062</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>180.38846514136517</v>
+        <v>221.52483238501253</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>19.6074649373878</v>
+        <v>60.743832181035174</v>
       </c>
       <c r="Q16">
         <f t="shared" si="7"/>
-        <v>5.5958933461900893</v>
+        <v>5.613828901786853</v>
       </c>
       <c r="R16">
         <f t="shared" si="8"/>
-        <v>50.670375821859537</v>
+        <v>50.83278087257063</v>
       </c>
       <c r="S16">
         <f t="shared" si="9"/>
-        <v>45.49593778026707</v>
+        <v>65.197318173656868</v>
       </c>
       <c r="T16">
         <f t="shared" si="10"/>
-        <v>26.031624052045487</v>
+        <v>35.641196087856443</v>
       </c>
     </row>
     <row r="17" spans="6:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -7427,43 +7430,43 @@
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>13.004048316377823</v>
+        <v>14.278181476103583</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>113.00201335575433</v>
+        <v>155.41251375912745</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>21.882148336775561</v>
+        <v>23.156281496501322</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>4.1259482959800842</v>
+        <v>5.4000814557058447</v>
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>202.27061347814075</v>
+        <v>244.68111388151385</v>
       </c>
       <c r="N17">
         <f t="shared" si="6"/>
-        <v>23.733413233367884</v>
+        <v>66.143913636741019</v>
       </c>
       <c r="Q17">
         <f t="shared" si="7"/>
-        <v>5.5958933461900893</v>
+        <v>5.613828901786853</v>
       </c>
       <c r="R17">
         <f t="shared" si="8"/>
-        <v>56.266269168049625</v>
+        <v>56.446609774357484</v>
       </c>
       <c r="S17">
         <f t="shared" si="9"/>
-        <v>49.428402990651932</v>
+        <v>69.508485733744735</v>
       </c>
       <c r="T17">
         <f t="shared" si="10"/>
-        <v>31.92059336148229</v>
+        <v>42.141491024922459</v>
       </c>
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.2">
@@ -7480,43 +7483,43 @@
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>11.722673055701861</v>
+        <v>12.996806215427622</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>124.72468641145619</v>
+        <v>168.40931997455507</v>
       </c>
       <c r="K18">
         <f>I18+G18</f>
-        <v>20.6007730760996</v>
+        <v>21.87490623582536</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>2.8445730353041228</v>
+        <v>4.1187061950298833</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>222.87138655424036</v>
+        <v>266.55602011733919</v>
       </c>
       <c r="N18">
         <f t="shared" si="6"/>
-        <v>26.577986268672007</v>
+        <v>70.262619831770905</v>
       </c>
       <c r="Q18">
         <f t="shared" si="7"/>
-        <v>5.5958933461900893</v>
+        <v>5.613828901786853</v>
       </c>
       <c r="R18">
         <f t="shared" si="8"/>
-        <v>61.862162514239714</v>
+        <v>62.060438676144337</v>
       </c>
       <c r="S18">
         <f t="shared" si="9"/>
-        <v>52.438823643100804</v>
+        <v>72.835119173252636</v>
       </c>
       <c r="T18">
         <f t="shared" si="10"/>
-        <v>37.549660169904477</v>
+        <v>48.413931535532974</v>
       </c>
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.2">
@@ -7533,43 +7536,43 @@
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>10.4412977950259</v>
+        <v>11.71543095475166</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>135.16598420648208</v>
+        <v>180.12475092930674</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>19.319397815423638</v>
+        <v>20.593530975149399</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>1.5631977746281613</v>
+        <v>2.8373309343539219</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>242.19078436966399</v>
+        <v>287.14955109248859</v>
       </c>
       <c r="N19">
         <f t="shared" si="6"/>
-        <v>28.141184043300168</v>
+        <v>73.099950766124834</v>
       </c>
       <c r="Q19">
         <f t="shared" si="7"/>
-        <v>5.5958933461900893</v>
+        <v>5.613828901786853</v>
       </c>
       <c r="R19">
         <f t="shared" si="8"/>
-        <v>67.458055860429809</v>
+        <v>67.67426757793119</v>
       </c>
       <c r="S19">
         <f t="shared" si="9"/>
-        <v>54.618504270985419</v>
+        <v>75.266297715727234</v>
       </c>
       <c r="T19">
         <f t="shared" si="10"/>
-        <v>42.800998047162466</v>
+        <v>54.334182450368523</v>
       </c>
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.2">
@@ -7586,43 +7589,43 @@
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>9.1599225343499384</v>
+        <v>10.434055694075699</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>144.32590674083201</v>
+        <v>190.55880662338245</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>17.038022554747677</v>
+        <v>18.312155714473437</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>1.2818225139521999</v>
+        <v>2.5559556736779605</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
-        <v>259.22880692441169</v>
+        <v>305.46170680696201</v>
       </c>
       <c r="N20">
         <f t="shared" si="6"/>
-        <v>29.423006557252368</v>
+        <v>75.655906439802791</v>
       </c>
       <c r="Q20">
         <f t="shared" si="7"/>
-        <v>4.9655903158870593</v>
+        <v>4.9815056694636208</v>
       </c>
       <c r="R20">
         <f t="shared" si="8"/>
-        <v>72.423646176316865</v>
+        <v>72.655773247394805</v>
       </c>
       <c r="S20">
         <f t="shared" si="9"/>
-        <v>56.124753648890561</v>
+        <v>76.965534791117747</v>
       </c>
       <c r="T20">
         <f t="shared" si="10"/>
-        <v>47.556105772222196</v>
+        <v>59.77500898331536</v>
       </c>
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.2">
@@ -7639,43 +7642,43 @@
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>7.8785472736739761</v>
+        <v>9.1526804333997376</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>152.20445401450598</v>
+        <v>199.71148705678218</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>14.756647294071715</v>
+        <v>16.030780453797476</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>1.0004472532762376</v>
+        <v>2.2745804130019991</v>
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
-        <v>273.98545421848343</v>
+        <v>321.4924872607595</v>
       </c>
       <c r="N21">
         <f t="shared" si="6"/>
-        <v>30.423453810528606</v>
+        <v>77.93048685280479</v>
       </c>
       <c r="Q21">
         <f t="shared" si="7"/>
-        <v>4.3352872855840285</v>
+        <v>4.3491824371403878</v>
       </c>
       <c r="R21">
         <f t="shared" si="8"/>
-        <v>76.758933461900895</v>
+        <v>77.00495568453519</v>
       </c>
       <c r="S21">
         <f t="shared" si="9"/>
-        <v>57.107419326382278</v>
+        <v>78.089868677622732</v>
       </c>
       <c r="T21">
         <f t="shared" si="10"/>
-        <v>51.732256197989699</v>
+        <v>64.646956572489188</v>
       </c>
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.2">
@@ -7692,43 +7695,43 @@
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>6.5971720129980138</v>
+        <v>7.8713051727237753</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>158.801626027504</v>
+        <v>207.58279222950594</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>12.475272033395752</v>
+        <v>13.749405193121515</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>0.71907199260027532</v>
+        <v>1.9932051523260368</v>
       </c>
       <c r="M22">
         <f t="shared" si="5"/>
-        <v>286.46072625187918</v>
+        <v>335.24189245388101</v>
       </c>
       <c r="N22">
         <f t="shared" si="6"/>
-        <v>31.142525803128883</v>
+        <v>79.923692005130832</v>
       </c>
       <c r="Q22">
         <f t="shared" si="7"/>
-        <v>3.7049842552809986</v>
+        <v>3.716859204817156</v>
       </c>
       <c r="R22">
         <f t="shared" si="8"/>
-        <v>80.4639177171819</v>
+        <v>80.721814889352345</v>
       </c>
       <c r="S22">
         <f t="shared" si="9"/>
-        <v>57.702574496051952</v>
+        <v>78.783149388641988</v>
       </c>
       <c r="T22">
         <f t="shared" si="10"/>
-        <v>55.275055953226143</v>
+        <v>68.890700421466022</v>
       </c>
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.2">
@@ -7745,43 +7748,43 @@
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>5.3157967523220515</v>
+        <v>6.589929912047813</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>164.11742277982606</v>
+        <v>214.17272214155375</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>10.193896772719789</v>
+        <v>11.468029932445551</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0.43769673192431302</v>
+        <v>1.7118298916500745</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>296.65462302459895</v>
+        <v>346.70992238632658</v>
       </c>
       <c r="N23">
         <f t="shared" si="6"/>
-        <v>31.580222535053196</v>
+        <v>81.635521896780901</v>
       </c>
       <c r="Q23">
         <f t="shared" si="7"/>
-        <v>3.0746812249779683</v>
+        <v>3.0845359724939234</v>
       </c>
       <c r="R23">
         <f t="shared" si="8"/>
-        <v>83.538598942159865</v>
+        <v>83.806350861846269</v>
       </c>
       <c r="S23">
         <f t="shared" si="9"/>
-        <v>58.028323778475119</v>
+        <v>79.171550364356023</v>
       </c>
       <c r="T23">
         <f t="shared" si="10"/>
-        <v>58.151347103014693</v>
+        <v>72.469686965456432</v>
       </c>
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.2">
@@ -7798,43 +7801,43 @@
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>4.0344214916460892</v>
+        <v>5.3085546513718507</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>168.15184427147216</v>
+        <v>219.4812767929256</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>7.9125215120438277</v>
+        <v>9.1866546717695883</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>0.15632147124835072</v>
+        <v>1.4304546309741122</v>
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
-        <v>304.56714453664279</v>
+        <v>355.89657705809617</v>
       </c>
       <c r="N24">
         <f t="shared" si="6"/>
-        <v>31.736544006301546</v>
+        <v>83.065976527755012</v>
       </c>
       <c r="Q24">
         <f t="shared" si="7"/>
-        <v>2.4443781946749379</v>
+        <v>2.4522127401706912</v>
       </c>
       <c r="R24">
         <f t="shared" si="8"/>
-        <v>85.982977136834805</v>
+        <v>86.258563602016963</v>
       </c>
       <c r="S24">
         <f t="shared" si="9"/>
-        <v>58.182223931243499</v>
+        <v>79.360786922192958</v>
       </c>
       <c r="T24">
         <f t="shared" si="10"/>
-        <v>60.342864780407652</v>
+        <v>75.363506159044391</v>
       </c>
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.2">
@@ -7851,43 +7854,43 @@
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>2.7530462309701269</v>
+        <v>4.0271793906958884</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>170.90489050244227</v>
+        <v>223.50845618362149</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>5.6311462513678654</v>
+        <v>6.9052794110936269</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>-0.12505378942761158</v>
+        <v>1.1490793702981499</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
-        <v>310.19829078801064</v>
+        <v>362.80185646918977</v>
       </c>
       <c r="N25">
         <f t="shared" si="6"/>
-        <v>31.611490216873936</v>
+        <v>84.215055898053166</v>
       </c>
       <c r="Q25">
         <f t="shared" si="7"/>
-        <v>1.8140751643719077</v>
+        <v>1.8198895078474591</v>
       </c>
       <c r="R25">
         <f t="shared" si="8"/>
-        <v>87.797052301206719</v>
+        <v>88.078453109864427</v>
       </c>
       <c r="S25">
         <f t="shared" si="9"/>
-        <v>58.239850135170286</v>
+        <v>79.434555195799533</v>
       </c>
       <c r="T25">
         <f t="shared" si="10"/>
-        <v>61.840908118999479</v>
+        <v>77.562269047991066</v>
       </c>
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.2">
@@ -7904,43 +7907,43 @@
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>1.4716709702941646</v>
+        <v>2.7458041300199261</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>172.37656147273643</v>
+        <v>226.25426031364142</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>3.3497709906919031</v>
+        <v>4.6239041504176646</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>-0.40642905010357389</v>
+        <v>0.86770410962218758</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>313.54806177870256</v>
+        <v>367.42576061960744</v>
       </c>
       <c r="N26">
         <f t="shared" si="6"/>
-        <v>31.205061166770363</v>
+        <v>85.082760007675347</v>
       </c>
       <c r="Q26">
         <f t="shared" si="7"/>
-        <v>1.1837721340688776</v>
+        <v>1.1875662755242267</v>
       </c>
       <c r="R26">
         <f t="shared" si="8"/>
-        <v>88.980824435275593</v>
+        <v>89.26601938538866</v>
       </c>
       <c r="S26">
         <f t="shared" si="9"/>
-        <v>58.254104443616917</v>
+        <v>79.45377023779568</v>
       </c>
       <c r="T26">
         <f t="shared" si="10"/>
-        <v>62.64216906091108</v>
+        <v>79.062145970328729</v>
       </c>
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.2">
@@ -7957,43 +7960,43 @@
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>0.1902957096182023</v>
+        <v>1.4644288693439638</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.7186891829854</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>1.0683957300159408</v>
+        <v>2.3425288897417023</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>-0.68780431077953619</v>
+        <v>0.58632884894622528</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.76828950934913</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.66908885662157</v>
       </c>
       <c r="Q27">
         <f t="shared" si="7"/>
-        <v>0.55346910376584724</v>
+        <v>0.55524304320099427</v>
       </c>
       <c r="R27">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S27">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456265881042398</v>
       </c>
       <c r="T27">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.862142077672246</v>
       </c>
     </row>
     <row r="28" spans="6:20" x14ac:dyDescent="0.2">
@@ -8010,27 +8013,27 @@
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.18305360866800147</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.18305360866800147</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.18305360866800147</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N28">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q28">
         <f t="shared" si="7"/>
@@ -8038,15 +8041,15 @@
       </c>
       <c r="R28">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T28">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="29" spans="6:20" x14ac:dyDescent="0.2">
@@ -8067,7 +8070,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
@@ -8079,11 +8082,11 @@
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N29">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q29">
         <f t="shared" si="7"/>
@@ -8091,15 +8094,15 @@
       </c>
       <c r="R29">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S29">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T29">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="30" spans="6:20" x14ac:dyDescent="0.2">
@@ -8120,7 +8123,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
@@ -8132,11 +8135,11 @@
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q30">
         <f t="shared" si="7"/>
@@ -8144,15 +8147,15 @@
       </c>
       <c r="R30">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S30">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T30">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.2">
@@ -8173,7 +8176,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
@@ -8185,11 +8188,11 @@
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N31">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
@@ -8197,15 +8200,15 @@
       </c>
       <c r="R31">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S31">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T31">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="32" spans="6:20" x14ac:dyDescent="0.2">
@@ -8226,7 +8229,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
@@ -8238,11 +8241,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N32">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q32">
         <f t="shared" si="7"/>
@@ -8250,18 +8253,18 @@
       </c>
       <c r="R32">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S32">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T32">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="33" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F33">
         <v>750</v>
       </c>
@@ -8279,7 +8282,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
@@ -8291,11 +8294,11 @@
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N33">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q33">
         <f t="shared" si="7"/>
@@ -8303,18 +8306,18 @@
       </c>
       <c r="R33">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S33">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T33">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="34" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F34">
         <v>775</v>
       </c>
@@ -8332,7 +8335,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
@@ -8344,11 +8347,11 @@
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N34">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q34">
         <f t="shared" si="7"/>
@@ -8356,18 +8359,18 @@
       </c>
       <c r="R34">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S34">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T34">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="35" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F35">
         <v>800</v>
       </c>
@@ -8385,7 +8388,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
@@ -8397,11 +8400,11 @@
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N35">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q35">
         <f t="shared" si="7"/>
@@ -8409,18 +8412,18 @@
       </c>
       <c r="R35">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S35">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T35">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="36" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F36">
         <v>825</v>
       </c>
@@ -8438,7 +8441,7 @@
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
@@ -8450,11 +8453,11 @@
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N36">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q36">
         <f t="shared" si="7"/>
@@ -8462,18 +8465,18 @@
       </c>
       <c r="R36">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S36">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T36">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="37" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F37">
         <v>850</v>
       </c>
@@ -8491,7 +8494,7 @@
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
@@ -8503,11 +8506,11 @@
       </c>
       <c r="M37">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N37">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q37">
         <f t="shared" si="7"/>
@@ -8515,18 +8518,18 @@
       </c>
       <c r="R37">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S37">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T37">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="38" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F38">
         <v>875</v>
       </c>
@@ -8544,7 +8547,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
@@ -8556,11 +8559,11 @@
       </c>
       <c r="M38">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N38">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q38">
         <f t="shared" si="7"/>
@@ -8568,18 +8571,18 @@
       </c>
       <c r="R38">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S38">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T38">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="39" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F39">
         <v>900</v>
       </c>
@@ -8597,7 +8600,7 @@
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
@@ -8609,11 +8612,11 @@
       </c>
       <c r="M39">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N39">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q39">
         <f t="shared" si="7"/>
@@ -8621,18 +8624,18 @@
       </c>
       <c r="R39">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S39">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T39">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="40" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F40">
         <v>925</v>
       </c>
@@ -8650,7 +8653,7 @@
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
@@ -8662,11 +8665,11 @@
       </c>
       <c r="M40">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N40">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q40">
         <f t="shared" si="7"/>
@@ -8674,18 +8677,18 @@
       </c>
       <c r="R40">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S40">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T40">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="41" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F41">
         <v>950</v>
       </c>
@@ -8703,7 +8706,7 @@
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
@@ -8715,11 +8718,11 @@
       </c>
       <c r="M41">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N41">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q41">
         <f t="shared" si="7"/>
@@ -8727,18 +8730,18 @@
       </c>
       <c r="R41">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S41">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T41">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="42" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F42">
         <v>975</v>
       </c>
@@ -8756,7 +8759,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
@@ -8768,11 +8771,11 @@
       </c>
       <c r="M42">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N42">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q42">
         <f t="shared" si="7"/>
@@ -8780,18 +8783,18 @@
       </c>
       <c r="R42">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S42">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T42">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="43" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F43">
         <v>1000</v>
       </c>
@@ -8809,7 +8812,7 @@
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
@@ -8821,11 +8824,11 @@
       </c>
       <c r="M43">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N43">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q43">
         <f t="shared" si="7"/>
@@ -8833,18 +8836,18 @@
       </c>
       <c r="R43">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S43">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T43">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="44" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F44">
         <v>1025</v>
       </c>
@@ -8862,7 +8865,7 @@
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
@@ -8874,11 +8877,11 @@
       </c>
       <c r="M44">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N44">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q44">
         <f t="shared" si="7"/>
@@ -8886,18 +8889,18 @@
       </c>
       <c r="R44">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S44">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T44">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="45" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F45">
         <v>1050</v>
       </c>
@@ -8915,7 +8918,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
@@ -8927,11 +8930,11 @@
       </c>
       <c r="M45">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N45">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q45">
         <f t="shared" si="7"/>
@@ -8939,18 +8942,18 @@
       </c>
       <c r="R45">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S45">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T45">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="46" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F46">
         <v>1075</v>
       </c>
@@ -8968,7 +8971,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
@@ -8980,11 +8983,11 @@
       </c>
       <c r="M46">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N46">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q46">
         <f t="shared" si="7"/>
@@ -8992,18 +8995,21 @@
       </c>
       <c r="R46">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S46">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T46">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="47" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C47" s="18">
+        <v>42717</v>
+      </c>
       <c r="F47">
         <v>1100</v>
       </c>
@@ -9021,7 +9027,7 @@
       </c>
       <c r="J47">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
@@ -9033,11 +9039,11 @@
       </c>
       <c r="M47">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N47">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q47">
         <f t="shared" si="7"/>
@@ -9045,18 +9051,18 @@
       </c>
       <c r="R47">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S47">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T47">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="48" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F48">
         <v>1125</v>
       </c>
@@ -9074,7 +9080,7 @@
       </c>
       <c r="J48">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
@@ -9086,11 +9092,11 @@
       </c>
       <c r="M48">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N48">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q48">
         <f t="shared" si="7"/>
@@ -9098,18 +9104,18 @@
       </c>
       <c r="R48">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S48">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T48">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="49" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F49">
         <v>1150</v>
       </c>
@@ -9127,7 +9133,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
@@ -9139,11 +9145,11 @@
       </c>
       <c r="M49">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N49">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q49">
         <f t="shared" si="7"/>
@@ -9151,18 +9157,18 @@
       </c>
       <c r="R49">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S49">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T49">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="50" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F50">
         <v>1175</v>
       </c>
@@ -9180,7 +9186,7 @@
       </c>
       <c r="J50">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
@@ -9192,11 +9198,11 @@
       </c>
       <c r="M50">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N50">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q50">
         <f t="shared" si="7"/>
@@ -9204,18 +9210,18 @@
       </c>
       <c r="R50">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S50">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T50">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="51" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F51">
         <v>1200</v>
       </c>
@@ -9233,7 +9239,7 @@
       </c>
       <c r="J51">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
@@ -9245,11 +9251,11 @@
       </c>
       <c r="M51">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N51">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q51">
         <f t="shared" si="7"/>
@@ -9257,18 +9263,18 @@
       </c>
       <c r="R51">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S51">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T51">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="52" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F52">
         <v>1225</v>
       </c>
@@ -9286,7 +9292,7 @@
       </c>
       <c r="J52">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
@@ -9298,11 +9304,11 @@
       </c>
       <c r="M52">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N52">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q52">
         <f t="shared" si="7"/>
@@ -9310,18 +9316,18 @@
       </c>
       <c r="R52">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S52">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T52">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="53" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F53">
         <v>1250</v>
       </c>
@@ -9339,7 +9345,7 @@
       </c>
       <c r="J53">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
@@ -9351,11 +9357,11 @@
       </c>
       <c r="M53">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N53">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q53">
         <f t="shared" si="7"/>
@@ -9363,18 +9369,18 @@
       </c>
       <c r="R53">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S53">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T53">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="54" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F54">
         <v>1275</v>
       </c>
@@ -9392,7 +9398,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
@@ -9404,11 +9410,11 @@
       </c>
       <c r="M54">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N54">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q54">
         <f t="shared" si="7"/>
@@ -9416,18 +9422,18 @@
       </c>
       <c r="R54">
         <f>Q54+R53</f>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S54">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T54">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="55" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F55">
         <v>1300</v>
       </c>
@@ -9445,7 +9451,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
@@ -9457,11 +9463,11 @@
       </c>
       <c r="M55">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N55">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q55">
         <f t="shared" si="7"/>
@@ -9469,18 +9475,22 @@
       </c>
       <c r="R55">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S55">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T55">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="56" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <f>13/12</f>
+        <v>1.0833333333333333</v>
+      </c>
       <c r="F56">
         <v>1325</v>
       </c>
@@ -9498,7 +9508,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
@@ -9510,11 +9520,11 @@
       </c>
       <c r="M56">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N56">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q56">
         <f t="shared" si="7"/>
@@ -9522,18 +9532,22 @@
       </c>
       <c r="R56">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S56">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T56">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="57" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <f>530/2/180 * 2*PI()*C15 /120</f>
+        <v>1.2063861233889139</v>
+      </c>
       <c r="F57">
         <v>1350</v>
       </c>
@@ -9551,7 +9565,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
@@ -9563,11 +9577,11 @@
       </c>
       <c r="M57">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N57">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q57">
         <f t="shared" si="7"/>
@@ -9575,18 +9589,18 @@
       </c>
       <c r="R57">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S57">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T57">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="58" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F58">
         <v>1375</v>
       </c>
@@ -9604,7 +9618,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
@@ -9616,11 +9630,11 @@
       </c>
       <c r="M58">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N58">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q58">
         <f t="shared" si="7"/>
@@ -9628,18 +9642,22 @@
       </c>
       <c r="R58">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S58">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T58">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="59" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <f>130/(2*PI()*C15) * 180</f>
+        <v>237.96969126839303</v>
+      </c>
       <c r="F59">
         <v>1400</v>
       </c>
@@ -9657,7 +9675,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
@@ -9669,11 +9687,11 @@
       </c>
       <c r="M59">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N59">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q59">
         <f t="shared" si="7"/>
@@ -9681,18 +9699,22 @@
       </c>
       <c r="R59">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S59">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T59">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="60" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <f>28000/(2*PI()*15.65)</f>
+        <v>284.75005792799163</v>
+      </c>
       <c r="F60">
         <v>1425</v>
       </c>
@@ -9710,7 +9732,7 @@
       </c>
       <c r="J60">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
@@ -9722,11 +9744,11 @@
       </c>
       <c r="M60">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N60">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q60">
         <f t="shared" si="7"/>
@@ -9734,18 +9756,18 @@
       </c>
       <c r="R60">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S60">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T60">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="61" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F61">
         <v>1450</v>
       </c>
@@ -9763,7 +9785,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
@@ -9775,11 +9797,11 @@
       </c>
       <c r="M61">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N61">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q61">
         <f t="shared" si="7"/>
@@ -9787,18 +9809,18 @@
       </c>
       <c r="R61">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S61">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T61">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="62" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F62">
         <v>1475</v>
       </c>
@@ -9816,7 +9838,7 @@
       </c>
       <c r="J62">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
@@ -9828,11 +9850,11 @@
       </c>
       <c r="M62">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N62">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q62">
         <f t="shared" si="7"/>
@@ -9840,18 +9862,18 @@
       </c>
       <c r="R62">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S62">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T62">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="63" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F63">
         <v>1500</v>
       </c>
@@ -9869,7 +9891,7 @@
       </c>
       <c r="J63">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
@@ -9881,11 +9903,11 @@
       </c>
       <c r="M63">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N63">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q63">
         <f t="shared" si="7"/>
@@ -9893,18 +9915,18 @@
       </c>
       <c r="R63">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S63">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T63">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
-    <row r="64" spans="6:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="F64">
         <v>1525</v>
       </c>
@@ -9922,7 +9944,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
@@ -9934,11 +9956,11 @@
       </c>
       <c r="M64">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N64">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q64">
         <f t="shared" si="7"/>
@@ -9946,15 +9968,15 @@
       </c>
       <c r="R64">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S64">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T64">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="65" spans="6:20" x14ac:dyDescent="0.2">
@@ -9975,7 +9997,7 @@
       </c>
       <c r="J65">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
@@ -9987,11 +10009,11 @@
       </c>
       <c r="M65">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N65">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q65">
         <f t="shared" si="7"/>
@@ -9999,15 +10021,15 @@
       </c>
       <c r="R65">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S65">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T65">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="66" spans="6:20" x14ac:dyDescent="0.2">
@@ -10028,7 +10050,7 @@
       </c>
       <c r="J66">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K66">
         <f t="shared" si="0"/>
@@ -10040,11 +10062,11 @@
       </c>
       <c r="M66">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N66">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q66">
         <f t="shared" si="7"/>
@@ -10052,15 +10074,15 @@
       </c>
       <c r="R66">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S66">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T66">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="67" spans="6:20" x14ac:dyDescent="0.2">
@@ -10081,7 +10103,7 @@
       </c>
       <c r="J67">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K67">
         <f t="shared" si="0"/>
@@ -10093,11 +10115,11 @@
       </c>
       <c r="M67">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N67">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q67">
         <f t="shared" si="7"/>
@@ -10105,15 +10127,15 @@
       </c>
       <c r="R67">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S67">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T67">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="68" spans="6:20" x14ac:dyDescent="0.2">
@@ -10134,7 +10156,7 @@
       </c>
       <c r="J68">
         <f t="shared" si="4"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K68">
         <f t="shared" ref="K68:K74" si="11">I68+G68</f>
@@ -10146,11 +10168,11 @@
       </c>
       <c r="M68">
         <f t="shared" si="5"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N68">
         <f t="shared" si="6"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q68">
         <f t="shared" si="7"/>
@@ -10158,15 +10180,15 @@
       </c>
       <c r="R68">
         <f t="shared" si="8"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S68">
         <f t="shared" si="9"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T68">
         <f t="shared" si="10"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="69" spans="6:20" x14ac:dyDescent="0.2">
@@ -10187,7 +10209,7 @@
       </c>
       <c r="J69">
         <f t="shared" ref="J69:J74" si="15">I69+J68</f>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K69">
         <f t="shared" si="11"/>
@@ -10199,11 +10221,11 @@
       </c>
       <c r="M69">
         <f t="shared" ref="M69:M74" si="16">K69+M68</f>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N69">
         <f t="shared" ref="N69:N74" si="17">L69+N68</f>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q69">
         <f t="shared" ref="Q69:Q74" si="18">360/(2*PI())*$P$3*(K69-L69)/$C$14</f>
@@ -10211,15 +10233,15 @@
       </c>
       <c r="R69">
         <f t="shared" ref="R69:R74" si="19">Q69+R68</f>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S69">
         <f t="shared" ref="S69:S74" si="20">S68+$P$3*((L69+K69)/2*COS(RADIANS(R69)))</f>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T69">
         <f t="shared" ref="T69:T74" si="21">T68+$P$3*((L69+K69)/2*SIN(RADIANS(R69)))</f>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="70" spans="6:20" x14ac:dyDescent="0.2">
@@ -10240,7 +10262,7 @@
       </c>
       <c r="J70">
         <f t="shared" si="15"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K70">
         <f t="shared" si="11"/>
@@ -10252,11 +10274,11 @@
       </c>
       <c r="M70">
         <f t="shared" si="16"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N70">
         <f t="shared" si="17"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q70">
         <f t="shared" si="18"/>
@@ -10264,15 +10286,15 @@
       </c>
       <c r="R70">
         <f t="shared" si="19"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S70">
         <f t="shared" si="20"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T70">
         <f t="shared" si="21"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="71" spans="6:20" x14ac:dyDescent="0.2">
@@ -10293,7 +10315,7 @@
       </c>
       <c r="J71">
         <f t="shared" si="15"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K71">
         <f t="shared" si="11"/>
@@ -10305,11 +10327,11 @@
       </c>
       <c r="M71">
         <f t="shared" si="16"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N71">
         <f t="shared" si="17"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q71">
         <f t="shared" si="18"/>
@@ -10317,15 +10339,15 @@
       </c>
       <c r="R71">
         <f t="shared" si="19"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S71">
         <f t="shared" si="20"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T71">
         <f t="shared" si="21"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="72" spans="6:20" x14ac:dyDescent="0.2">
@@ -10346,7 +10368,7 @@
       </c>
       <c r="J72">
         <f t="shared" si="15"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K72">
         <f t="shared" si="11"/>
@@ -10358,11 +10380,11 @@
       </c>
       <c r="M72">
         <f t="shared" si="16"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N72">
         <f t="shared" si="17"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q72">
         <f t="shared" si="18"/>
@@ -10370,15 +10392,15 @@
       </c>
       <c r="R72">
         <f t="shared" si="19"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S72">
         <f t="shared" si="20"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T72">
         <f t="shared" si="21"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="73" spans="6:20" x14ac:dyDescent="0.2">
@@ -10399,7 +10421,7 @@
       </c>
       <c r="J73">
         <f t="shared" si="15"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K73">
         <f t="shared" si="11"/>
@@ -10411,11 +10433,11 @@
       </c>
       <c r="M73">
         <f t="shared" si="16"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N73">
         <f t="shared" si="17"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q73">
         <f t="shared" si="18"/>
@@ -10423,15 +10445,15 @@
       </c>
       <c r="R73">
         <f t="shared" si="19"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S73">
         <f t="shared" si="20"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T73">
         <f t="shared" si="21"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="74" spans="6:20" x14ac:dyDescent="0.2">
@@ -10452,7 +10474,7 @@
       </c>
       <c r="J74">
         <f t="shared" si="15"/>
-        <v>172.56685718235462</v>
+        <v>227.90174279165339</v>
       </c>
       <c r="K74">
         <f t="shared" si="11"/>
@@ -10464,11 +10486,11 @@
       </c>
       <c r="M74">
         <f t="shared" si="16"/>
-        <v>314.6164575087185</v>
+        <v>369.95134311801712</v>
       </c>
       <c r="N74">
         <f t="shared" si="17"/>
-        <v>30.517256855990826</v>
+        <v>85.852142465289575</v>
       </c>
       <c r="Q74">
         <f t="shared" si="18"/>
@@ -10476,15 +10498,15 @@
       </c>
       <c r="R74">
         <f t="shared" si="19"/>
-        <v>89.534293539041443</v>
+        <v>89.821262428589648</v>
       </c>
       <c r="S74">
         <f t="shared" si="20"/>
-        <v>58.254946702901613</v>
+        <v>79.456577836448233</v>
       </c>
       <c r="T74">
         <f t="shared" si="21"/>
-        <v>62.745789782483726</v>
+        <v>79.962141591090187</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.2">
@@ -10493,7 +10515,7 @@
       </c>
       <c r="D85">
         <f>PI()/2*C14/P3</f>
-        <v>285.57692307692309</v>
+        <v>284.66453674121408</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.2">
